--- a/Data/SABR Plan Evaluation Worksheet BLANK.xlsx
+++ b/Data/SABR Plan Evaluation Worksheet BLANK.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="22130"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="22228"/>
   <workbookPr codeName="ThisWorkbook" defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Greg\OneDrive - Queen's University\Python\Projects\EclipseRelated\PlanEvaluation\Data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="9" documentId="11_B9C4EF12A396D4B7033C52154DBEC399ECC58F9A" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{DB792BCD-160D-4371-97FE-04077AF72BF9}"/>
+  <xr:revisionPtr revIDLastSave="354" documentId="11_B9C4EF12A396D4B7033C52154DBEC399ECC58F9A" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{11E59EFD-FDC1-4258-82B2-E9D2E74EF4FB}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="24240" windowHeight="13290" tabRatio="893" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -40,7 +40,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="731" uniqueCount="209">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="762" uniqueCount="208">
   <si>
     <t>Patient:</t>
   </si>
@@ -428,9 +428,6 @@
     <t>R or L Lung volume getting&gt;1240cGy</t>
   </si>
   <si>
-    <t>LUNG</t>
-  </si>
-  <si>
     <t>PTV Volume</t>
   </si>
   <si>
@@ -1633,9 +1630,6 @@
     </r>
   </si>
   <si>
-    <t xml:space="preserve"> ??</t>
-  </si>
-  <si>
     <t>Calculated Value</t>
   </si>
   <si>
@@ -2091,6 +2085,9 @@
       </rPr>
       <t xml:space="preserve"> 5cc</t>
     </r>
+  </si>
+  <si>
+    <t>test</t>
   </si>
 </sst>
 </file>
@@ -2955,7 +2952,7 @@
     <xf numFmtId="9" fontId="5" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="9" fontId="39" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="331">
+  <cellXfs count="351">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -3352,10 +3349,6 @@
       <alignment horizontal="center"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center"/>
-      <protection locked="0"/>
-    </xf>
     <xf numFmtId="0" fontId="5" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center"/>
       <protection locked="0"/>
@@ -3444,38 +3437,26 @@
       <alignment horizontal="center"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="166" fontId="5" fillId="2" borderId="32" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="166" fontId="5" fillId="2" borderId="32" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="166" fontId="5" fillId="2" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="166" fontId="5" fillId="2" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="166" fontId="1" fillId="0" borderId="2" xfId="2" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="166" fontId="5" fillId="2" borderId="2" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="166" fontId="5" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="166" fontId="1" fillId="0" borderId="2" xfId="2" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="166" fontId="5" fillId="2" borderId="2" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center"/>
-      <protection locked="0"/>
-    </xf>
     <xf numFmtId="0" fontId="14" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="35" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="26" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center"/>
-      <protection locked="0"/>
     </xf>
     <xf numFmtId="0" fontId="12" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center"/>
@@ -3715,14 +3696,6 @@
     </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="43" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="44" xfId="0" applyFont="1" applyBorder="1" applyProtection="1"/>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="45" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="33" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center"/>
-      <protection locked="0"/>
-    </xf>
     <xf numFmtId="0" fontId="5" fillId="2" borderId="46" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center"/>
       <protection locked="0"/>
@@ -3793,6 +3766,106 @@
       <protection locked="0"/>
     </xf>
     <xf numFmtId="165" fontId="0" fillId="2" borderId="5" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyProtection="1">
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="49" fontId="3" fillId="2" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="2" fontId="5" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="2" fontId="0" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="2" fontId="0" fillId="2" borderId="11" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="10" fontId="5" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="2" fontId="5" fillId="2" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="2" fontId="5" fillId="2" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="165" fontId="5" fillId="2" borderId="26" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="165" fontId="0" fillId="2" borderId="3" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="165" fontId="4" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="2" fontId="4" fillId="2" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="165" fontId="5" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="165" fontId="5" fillId="2" borderId="45" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="165" fontId="5" fillId="2" borderId="33" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="2" fontId="5" fillId="2" borderId="46" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="2" fontId="5" fillId="2" borderId="34" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="2" fontId="0" fillId="2" borderId="5" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="165" fontId="5" fillId="2" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="2" fontId="5" fillId="2" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="165" fontId="4" fillId="2" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="165" fontId="5" fillId="2" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="2" fontId="0" fillId="2" borderId="3" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" applyNumberFormat="1" applyBorder="1" applyProtection="1"/>
+    <xf numFmtId="1" fontId="3" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center"/>
       <protection locked="0"/>
     </xf>
@@ -5143,8 +5216,8 @@
   </sheetPr>
   <dimension ref="A1:P63"/>
   <sheetViews>
-    <sheetView topLeftCell="A34" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="G15" sqref="G15"/>
+    <sheetView zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="R25" sqref="R25"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -5162,28 +5235,28 @@
     <col min="11" max="11" width="14.42578125" style="1" customWidth="1"/>
     <col min="12" max="12" width="18.140625" style="1" customWidth="1"/>
     <col min="13" max="13" width="14" style="2" customWidth="1"/>
-    <col min="15" max="15" width="38.85546875" style="319" bestFit="1" customWidth="1"/>
-    <col min="16" max="16" width="13.5703125" style="320" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="38.85546875" style="313" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="13.5703125" style="314" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="2:16" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B1" s="210" t="s">
-        <v>157</v>
-      </c>
-      <c r="C1" s="211"/>
-      <c r="D1" s="210"/>
-      <c r="E1" s="211"/>
-      <c r="F1" s="212"/>
-      <c r="G1" s="212"/>
-      <c r="H1" s="213" t="s">
+      <c r="B1" s="206" t="s">
         <v>156</v>
       </c>
-      <c r="I1" s="210"/>
-      <c r="J1" s="210"/>
-      <c r="K1" s="214"/>
-      <c r="L1" s="214"/>
+      <c r="C1" s="207"/>
+      <c r="D1" s="206"/>
+      <c r="E1" s="207"/>
+      <c r="F1" s="208"/>
+      <c r="G1" s="208"/>
+      <c r="H1" s="209" t="s">
+        <v>155</v>
+      </c>
+      <c r="I1" s="206"/>
+      <c r="J1" s="206"/>
+      <c r="K1" s="210"/>
+      <c r="L1" s="210"/>
       <c r="M1" s="87"/>
-      <c r="O1" s="306"/>
+      <c r="O1" s="300"/>
     </row>
     <row r="2" spans="2:16" x14ac:dyDescent="0.2">
       <c r="B2" s="82"/>
@@ -5192,7 +5265,7 @@
       <c r="E2" s="83"/>
       <c r="F2" s="84"/>
       <c r="G2" s="85" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="H2" s="84"/>
       <c r="I2" s="83"/>
@@ -5200,7 +5273,7 @@
       <c r="K2" s="84"/>
       <c r="L2" s="86"/>
       <c r="M2" s="87"/>
-      <c r="O2" s="306"/>
+      <c r="O2" s="300"/>
     </row>
     <row r="3" spans="2:16" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
       <c r="B3" s="89"/>
@@ -5217,22 +5290,22 @@
       <c r="K3" s="91"/>
       <c r="L3" s="93"/>
       <c r="M3" s="87"/>
-      <c r="O3" s="306"/>
+      <c r="O3" s="300"/>
     </row>
     <row r="4" spans="2:16" x14ac:dyDescent="0.2">
       <c r="B4" s="94"/>
       <c r="C4" s="95" t="s">
         <v>0</v>
       </c>
-      <c r="D4" s="19" t="s">
+      <c r="D4" s="319" t="s">
         <v>66</v>
       </c>
       <c r="E4" s="96"/>
       <c r="F4" s="95" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
       <c r="G4" s="97"/>
-      <c r="H4" s="163" t="s">
+      <c r="H4" s="324" t="s">
         <v>66</v>
       </c>
       <c r="I4" s="96"/>
@@ -5244,11 +5317,11 @@
         <v>66</v>
       </c>
       <c r="M4" s="87"/>
-      <c r="O4" s="307" t="str">
+      <c r="O4" s="301" t="str">
         <f>C4</f>
         <v>Patient:</v>
       </c>
-      <c r="P4" s="312" t="str">
+      <c r="P4" s="306" t="str">
         <f>D4</f>
         <v>??</v>
       </c>
@@ -5263,10 +5336,10 @@
       </c>
       <c r="E5" s="96"/>
       <c r="F5" s="95" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="G5" s="97"/>
-      <c r="H5" s="163" t="s">
+      <c r="H5" s="344" t="s">
         <v>66</v>
       </c>
       <c r="I5" s="96"/>
@@ -5274,15 +5347,15 @@
       <c r="K5" s="95" t="s">
         <v>3</v>
       </c>
-      <c r="L5" s="18" t="s">
+      <c r="L5" s="320" t="s">
         <v>66</v>
       </c>
       <c r="M5" s="87"/>
-      <c r="O5" s="307" t="str">
+      <c r="O5" s="301" t="str">
         <f>C5</f>
         <v>CR#:</v>
       </c>
-      <c r="P5" s="321" t="str">
+      <c r="P5" s="315" t="str">
         <f>D5</f>
         <v>??</v>
       </c>
@@ -5302,11 +5375,11 @@
       <c r="K6" s="84"/>
       <c r="L6" s="86"/>
       <c r="M6" s="87"/>
-      <c r="O6" s="307" t="str">
+      <c r="O6" s="301" t="str">
         <f>K4</f>
         <v>Site:</v>
       </c>
-      <c r="P6" s="312" t="str">
+      <c r="P6" s="306" t="str">
         <f>L4</f>
         <v>??</v>
       </c>
@@ -5319,7 +5392,7 @@
       <c r="D7" s="96"/>
       <c r="E7" s="96"/>
       <c r="F7" s="97"/>
-      <c r="G7" s="177" t="s">
+      <c r="G7" s="321" t="s">
         <v>66</v>
       </c>
       <c r="H7" s="97"/>
@@ -5328,11 +5401,11 @@
       <c r="K7" s="97"/>
       <c r="L7" s="100"/>
       <c r="M7" s="87"/>
-      <c r="O7" s="307" t="str">
+      <c r="O7" s="301" t="str">
         <f>K5</f>
         <v>Plan Name:</v>
       </c>
-      <c r="P7" s="312" t="str">
+      <c r="P7" s="306" t="str">
         <f>L5</f>
         <v>??</v>
       </c>
@@ -5345,7 +5418,7 @@
       <c r="D8" s="96"/>
       <c r="E8" s="96"/>
       <c r="F8" s="97"/>
-      <c r="G8" s="177" t="s">
+      <c r="G8" s="321" t="s">
         <v>66</v>
       </c>
       <c r="H8" s="97"/>
@@ -5354,11 +5427,11 @@
       <c r="K8" s="97"/>
       <c r="L8" s="100"/>
       <c r="M8" s="87"/>
-      <c r="O8" s="307" t="str">
+      <c r="O8" s="301" t="str">
         <f>F4</f>
         <v>Prescription Dose (cGy):</v>
       </c>
-      <c r="P8" s="312" t="str">
+      <c r="P8" s="306" t="str">
         <f>H4</f>
         <v>??</v>
       </c>
@@ -5371,7 +5444,7 @@
       <c r="D9" s="96"/>
       <c r="E9" s="96"/>
       <c r="F9" s="97"/>
-      <c r="G9" s="177" t="s">
+      <c r="G9" s="321" t="s">
         <v>66</v>
       </c>
       <c r="H9" s="97"/>
@@ -5380,11 +5453,11 @@
       <c r="K9" s="97"/>
       <c r="L9" s="100"/>
       <c r="M9" s="87"/>
-      <c r="O9" s="307" t="str">
+      <c r="O9" s="301" t="str">
         <f>F5</f>
         <v>Fractions:</v>
       </c>
-      <c r="P9" s="312" t="str">
+      <c r="P9" s="306" t="str">
         <f>H5</f>
         <v>??</v>
       </c>
@@ -5397,7 +5470,7 @@
       <c r="D10" s="90"/>
       <c r="E10" s="90"/>
       <c r="F10" s="91"/>
-      <c r="G10" s="23" t="s">
+      <c r="G10" s="323" t="s">
         <v>66</v>
       </c>
       <c r="H10" s="91"/>
@@ -5406,11 +5479,11 @@
       <c r="K10" s="91"/>
       <c r="L10" s="93"/>
       <c r="M10" s="87"/>
-      <c r="O10" s="307" t="str">
+      <c r="O10" s="301" t="str">
         <f>C7</f>
         <v>GTV Volume (cc)</v>
       </c>
-      <c r="P10" s="312" t="str">
+      <c r="P10" s="306" t="str">
         <f>G7</f>
         <v>??</v>
       </c>
@@ -5421,28 +5494,28 @@
       </c>
       <c r="C11" s="83"/>
       <c r="D11" s="83"/>
-      <c r="E11" s="215" t="s">
+      <c r="E11" s="211" t="s">
         <v>42</v>
       </c>
-      <c r="F11" s="216"/>
-      <c r="G11" s="217"/>
-      <c r="H11" s="216"/>
+      <c r="F11" s="212"/>
+      <c r="G11" s="213"/>
+      <c r="H11" s="212"/>
       <c r="I11" s="117" t="s">
         <v>37</v>
       </c>
       <c r="J11" s="83"/>
-      <c r="K11" s="218" t="s">
+      <c r="K11" s="214" t="s">
         <v>37</v>
       </c>
-      <c r="L11" s="219" t="s">
+      <c r="L11" s="215" t="s">
         <v>37</v>
       </c>
       <c r="M11" s="87"/>
-      <c r="O11" s="307" t="str">
+      <c r="O11" s="301" t="str">
         <f>C8</f>
         <v>ITV Volume (cc):</v>
       </c>
-      <c r="P11" s="313" t="str">
+      <c r="P11" s="307" t="str">
         <f>G8</f>
         <v>??</v>
       </c>
@@ -5454,10 +5527,10 @@
       <c r="E12" s="107"/>
       <c r="F12" s="107"/>
       <c r="G12" s="114" t="s">
-        <v>179</v>
+        <v>178</v>
       </c>
       <c r="H12" s="109" t="s">
-        <v>184</v>
+        <v>182</v>
       </c>
       <c r="I12" s="110"/>
       <c r="J12" s="107"/>
@@ -5470,11 +5543,11 @@
       <c r="M12" s="112" t="s">
         <v>44</v>
       </c>
-      <c r="O12" s="307" t="str">
+      <c r="O12" s="301" t="str">
         <f>C9</f>
         <v>PTV Volume (cc)</v>
       </c>
-      <c r="P12" s="314" t="str">
+      <c r="P12" s="308" t="str">
         <f>G9</f>
         <v>??</v>
       </c>
@@ -5486,21 +5559,21 @@
       <c r="E13" s="96"/>
       <c r="F13" s="97"/>
       <c r="G13" s="114" t="s">
-        <v>180</v>
-      </c>
-      <c r="H13" s="220"/>
-      <c r="I13" s="221"/>
+        <v>179</v>
+      </c>
+      <c r="H13" s="216"/>
+      <c r="I13" s="217"/>
       <c r="J13" s="96"/>
       <c r="K13" s="114" t="s">
         <v>18</v>
       </c>
       <c r="L13" s="100"/>
       <c r="M13" s="87"/>
-      <c r="O13" s="307" t="str">
+      <c r="O13" s="301" t="str">
         <f>C10</f>
         <v>Total Lung Volume (cc)</v>
       </c>
-      <c r="P13" s="313" t="str">
+      <c r="P13" s="307" t="str">
         <f>G10</f>
         <v>??</v>
       </c>
@@ -5513,27 +5586,27 @@
       <c r="D14" s="107"/>
       <c r="E14" s="107"/>
       <c r="F14" s="115"/>
-      <c r="G14" s="204" t="s">
+      <c r="G14" s="201" t="s">
         <v>66</v>
       </c>
       <c r="H14" s="97"/>
       <c r="I14" s="96"/>
       <c r="J14" s="107"/>
-      <c r="K14" s="222" t="s">
-        <v>162</v>
+      <c r="K14" s="218" t="s">
+        <v>161</v>
       </c>
       <c r="L14" s="10" t="str">
         <f>IF(G14="??","??",IF((AND((G14&gt;59.99%),(G14&lt;95.01%))),"Yes", "No"))</f>
         <v>??</v>
       </c>
       <c r="M14" s="140" t="s">
-        <v>189</v>
-      </c>
-      <c r="O14" s="307" t="str">
+        <v>187</v>
+      </c>
+      <c r="O14" s="301" t="str">
         <f>C14</f>
         <v>Plan Normalization Value (%)</v>
       </c>
-      <c r="P14" s="315" t="str">
+      <c r="P14" s="309" t="str">
         <f>G14</f>
         <v>??</v>
       </c>
@@ -5544,15 +5617,15 @@
       <c r="D15" s="107"/>
       <c r="E15" s="107"/>
       <c r="F15" s="115"/>
-      <c r="G15" s="223"/>
-      <c r="H15" s="223"/>
-      <c r="I15" s="224"/>
+      <c r="G15" s="219"/>
+      <c r="H15" s="219"/>
+      <c r="I15" s="220"/>
       <c r="J15" s="107"/>
       <c r="K15" s="116"/>
       <c r="L15" s="10"/>
       <c r="M15" s="87"/>
-      <c r="O15" s="307"/>
-      <c r="P15" s="315"/>
+      <c r="O15" s="301"/>
+      <c r="P15" s="309"/>
     </row>
     <row r="16" spans="2:16" x14ac:dyDescent="0.2">
       <c r="B16" s="99" t="s">
@@ -5562,18 +5635,18 @@
       <c r="D16" s="83"/>
       <c r="E16" s="83"/>
       <c r="F16" s="118"/>
-      <c r="G16" s="225"/>
+      <c r="G16" s="221"/>
       <c r="H16" s="84"/>
-      <c r="I16" s="226"/>
+      <c r="I16" s="222"/>
       <c r="J16" s="83"/>
       <c r="K16" s="119"/>
       <c r="L16" s="11"/>
       <c r="M16" s="87"/>
-      <c r="O16" s="307" t="str">
+      <c r="O16" s="301" t="str">
         <f>C17</f>
         <v>PTV- Minimum Dose (%)</v>
       </c>
-      <c r="P16" s="313" t="str">
+      <c r="P16" s="307" t="str">
         <f>G17</f>
         <v>??</v>
       </c>
@@ -5581,30 +5654,30 @@
     <row r="17" spans="2:16" x14ac:dyDescent="0.2">
       <c r="B17" s="94"/>
       <c r="C17" s="106" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
       <c r="D17" s="107"/>
       <c r="E17" s="107"/>
       <c r="F17" s="115"/>
-      <c r="G17" s="202" t="s">
+      <c r="G17" s="325" t="s">
         <v>66</v>
       </c>
-      <c r="H17" s="227"/>
-      <c r="I17" s="224"/>
+      <c r="H17" s="223"/>
+      <c r="I17" s="220"/>
       <c r="J17" s="107"/>
       <c r="K17" s="116" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
       <c r="L17" s="10" t="str">
         <f>IF(G17="??","??",IF((AND((G17&gt;=60%),(G17&lt;=95%))),"Yes", "No"))</f>
         <v>??</v>
       </c>
       <c r="M17" s="87"/>
-      <c r="O17" s="307" t="str">
+      <c r="O17" s="301" t="str">
         <f>C18</f>
         <v>PTV - V100(%)</v>
       </c>
-      <c r="P17" s="313" t="str">
+      <c r="P17" s="307" t="str">
         <f>G18</f>
         <v>??</v>
       </c>
@@ -5617,27 +5690,27 @@
       <c r="D18" s="96"/>
       <c r="E18" s="96"/>
       <c r="F18" s="97"/>
-      <c r="G18" s="201" t="s">
+      <c r="G18" s="199" t="s">
         <v>66</v>
       </c>
-      <c r="H18" s="227"/>
+      <c r="H18" s="223"/>
       <c r="I18" s="122"/>
       <c r="J18" s="122"/>
       <c r="K18" s="123">
         <v>0.95</v>
       </c>
-      <c r="L18" s="196" t="str">
+      <c r="L18" s="195" t="str">
         <f>IF(G18="??","??",(IF(G18&gt;=95%,"Yes","No")))</f>
         <v>??</v>
       </c>
       <c r="M18" s="88" t="s">
         <v>31</v>
       </c>
-      <c r="O18" s="307" t="str">
+      <c r="O18" s="301" t="str">
         <f>C19</f>
         <v>PTV - V90 (%)</v>
       </c>
-      <c r="P18" s="313" t="str">
+      <c r="P18" s="307" t="str">
         <f>G19</f>
         <v>??</v>
       </c>
@@ -5650,27 +5723,27 @@
       <c r="D19" s="90"/>
       <c r="E19" s="90"/>
       <c r="F19" s="91"/>
-      <c r="G19" s="200" t="s">
+      <c r="G19" s="198" t="s">
         <v>66</v>
       </c>
-      <c r="H19" s="228"/>
+      <c r="H19" s="224"/>
       <c r="I19" s="126"/>
       <c r="J19" s="90"/>
       <c r="K19" s="127">
         <v>0.99</v>
       </c>
-      <c r="L19" s="196" t="str">
+      <c r="L19" s="195" t="str">
         <f>IF(G19="??","??",(IF(G19&gt;=99%,"Yes","No")))</f>
         <v>??</v>
       </c>
       <c r="M19" s="88" t="s">
         <v>32</v>
       </c>
-      <c r="O19" s="307" t="str">
+      <c r="O19" s="301" t="str">
         <f>CONCATENATE(C21," ",D21)</f>
         <v>Location V105% - PTV (cc) =</v>
       </c>
-      <c r="P19" s="316" t="str">
+      <c r="P19" s="310" t="str">
         <f>G21</f>
         <v>??</v>
       </c>
@@ -5690,11 +5763,11 @@
       <c r="K20" s="129"/>
       <c r="L20" s="14"/>
       <c r="M20" s="87"/>
-      <c r="O20" s="307" t="str">
+      <c r="O20" s="301" t="str">
         <f>CONCATENATE(C22," ",D22)</f>
         <v>Volume V100% (cc) =</v>
       </c>
-      <c r="P20" s="316" t="str">
+      <c r="P20" s="310" t="str">
         <f>G22</f>
         <v>??</v>
       </c>
@@ -5707,14 +5780,14 @@
         <v>40</v>
       </c>
       <c r="D21" s="122" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="E21" s="122"/>
       <c r="F21" s="131"/>
-      <c r="G21" s="198" t="s">
+      <c r="G21" s="326" t="s">
         <v>66</v>
       </c>
-      <c r="H21" s="229" t="str">
+      <c r="H21" s="225" t="str">
         <f>IFERROR(G21/G9,"??")</f>
         <v>??</v>
       </c>
@@ -5728,13 +5801,13 @@
         <v>??</v>
       </c>
       <c r="M21" s="140" t="s">
-        <v>186</v>
-      </c>
-      <c r="O21" s="307" t="str">
+        <v>184</v>
+      </c>
+      <c r="O21" s="301" t="str">
         <f>CONCATENATE(C24," ",D24)</f>
         <v>Location D³2cm (%) =</v>
       </c>
-      <c r="P21" s="317" t="str">
+      <c r="P21" s="311" t="str">
         <f>G24</f>
         <v>??</v>
       </c>
@@ -5747,14 +5820,14 @@
         <v>43</v>
       </c>
       <c r="D22" s="90" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="E22" s="90"/>
       <c r="F22" s="91"/>
-      <c r="G22" s="9" t="s">
+      <c r="G22" s="337" t="s">
         <v>66</v>
       </c>
-      <c r="H22" s="173" t="str">
+      <c r="H22" s="172" t="str">
         <f>IFERROR('Calculations 48Gy4F_ or_ 60Gy5F'!J31,"??")</f>
         <v>??</v>
       </c>
@@ -5772,13 +5845,13 @@
       <c r="M22" s="87" t="s">
         <v>52</v>
       </c>
-      <c r="O22" s="307" t="str">
+      <c r="O22" s="301" t="str">
         <f>C25</f>
         <v>Volume</v>
       </c>
-      <c r="P22" s="317" t="str">
+      <c r="P22" s="311" t="str">
         <f>G25</f>
-        <v xml:space="preserve"> ??</v>
+        <v>??</v>
       </c>
     </row>
     <row r="23" spans="2:16" x14ac:dyDescent="0.2">
@@ -5796,11 +5869,11 @@
       <c r="K23" s="119"/>
       <c r="L23" s="11"/>
       <c r="M23" s="87"/>
-      <c r="O23" s="307" t="str">
+      <c r="O23" s="301" t="str">
         <f>C29</f>
         <v>Mean Dose (contralateral lung)</v>
       </c>
-      <c r="P23" s="317" t="str">
+      <c r="P23" s="311" t="str">
         <f>G29</f>
         <v>??</v>
       </c>
@@ -5812,18 +5885,18 @@
       <c r="C24" s="130" t="s">
         <v>40</v>
       </c>
-      <c r="D24" s="230" t="s">
-        <v>182</v>
+      <c r="D24" s="226" t="s">
+        <v>181</v>
       </c>
       <c r="E24" s="122"/>
       <c r="F24" s="131"/>
-      <c r="G24" s="198" t="s">
+      <c r="G24" s="338" t="s">
         <v>66</v>
       </c>
-      <c r="H24" s="231"/>
+      <c r="H24" s="227"/>
       <c r="I24" s="139"/>
       <c r="J24" s="122"/>
-      <c r="K24" s="203" t="str">
+      <c r="K24" s="200" t="str">
         <f ca="1">IFERROR('Calculations 48Gy4F_ or_ 60Gy5F'!L27/100,"")</f>
         <v/>
       </c>
@@ -5832,13 +5905,13 @@
         <v>??</v>
       </c>
       <c r="M24" s="140" t="s">
-        <v>187</v>
-      </c>
-      <c r="O24" s="307" t="str">
+        <v>185</v>
+      </c>
+      <c r="O24" s="301" t="str">
         <f>C30</f>
         <v>Mean Dose (Total lung)</v>
       </c>
-      <c r="P24" s="317" t="str">
+      <c r="P24" s="311" t="str">
         <f>G30</f>
         <v>??</v>
       </c>
@@ -5850,13 +5923,13 @@
       <c r="C25" s="133" t="s">
         <v>43</v>
       </c>
-      <c r="D25" s="232" t="s">
-        <v>181</v>
+      <c r="D25" s="228" t="s">
+        <v>180</v>
       </c>
       <c r="E25" s="90"/>
-      <c r="F25" s="233"/>
-      <c r="G25" s="199" t="s">
-        <v>183</v>
+      <c r="F25" s="229"/>
+      <c r="G25" s="327" t="s">
+        <v>66</v>
       </c>
       <c r="H25" s="141" t="str">
         <f>IFERROR('Calculations 48Gy4F_ or_ 60Gy5F'!J32,"??")</f>
@@ -5871,17 +5944,17 @@
         <v/>
       </c>
       <c r="L25" s="81" t="str">
-        <f ca="1">IFERROR('Calculations 48Gy4F_ or_ 60Gy5F'!K32,"??")</f>
+        <f>IFERROR('Calculations 48Gy4F_ or_ 60Gy5F'!K32,"??")</f>
         <v>??</v>
       </c>
       <c r="M25" s="140" t="s">
-        <v>188</v>
-      </c>
-      <c r="O25" s="307" t="str">
+        <v>186</v>
+      </c>
+      <c r="O25" s="301" t="str">
         <f>C31</f>
         <v>V20 (Total Lung) in %</v>
       </c>
-      <c r="P25" s="317" t="str">
+      <c r="P25" s="311" t="str">
         <f>G31</f>
         <v>??</v>
       </c>
@@ -5895,10 +5968,10 @@
       <c r="E26" s="96"/>
       <c r="F26" s="97"/>
       <c r="G26" s="114" t="s">
-        <v>177</v>
+        <v>176</v>
       </c>
       <c r="H26" s="104" t="s">
-        <v>184</v>
+        <v>182</v>
       </c>
       <c r="I26" s="143"/>
       <c r="J26" s="143"/>
@@ -5907,11 +5980,11 @@
       </c>
       <c r="L26" s="145"/>
       <c r="M26" s="87"/>
-      <c r="O26" s="307" t="str">
+      <c r="O26" s="301" t="str">
         <f>CONCATENATE(C32," ",F32)</f>
         <v xml:space="preserve">Lung-Basic Function </v>
       </c>
-      <c r="P26" s="317" t="str">
+      <c r="P26" s="311" t="str">
         <f>G32</f>
         <v>??</v>
       </c>
@@ -5925,21 +5998,21 @@
       <c r="E27" s="96"/>
       <c r="F27" s="97"/>
       <c r="G27" s="114" t="s">
-        <v>178</v>
+        <v>177</v>
       </c>
       <c r="H27" s="104"/>
       <c r="I27" s="143"/>
       <c r="J27" s="143"/>
-      <c r="K27" s="205" t="s">
-        <v>175</v>
+      <c r="K27" s="202" t="s">
+        <v>174</v>
       </c>
       <c r="L27" s="145"/>
       <c r="M27" s="87"/>
-      <c r="O27" s="307" t="str">
+      <c r="O27" s="301" t="str">
         <f>CONCATENATE(C33," ",F33)</f>
         <v xml:space="preserve">Lung-Pneumonitis </v>
       </c>
-      <c r="P27" s="317" t="str">
+      <c r="P27" s="311" t="str">
         <f>G33</f>
         <v>??</v>
       </c>
@@ -5961,11 +6034,11 @@
       <c r="K28" s="119"/>
       <c r="L28" s="11"/>
       <c r="M28" s="87"/>
-      <c r="O28" s="307" t="str">
+      <c r="O28" s="301" t="str">
         <f>CONCATENATE(C35," ",F35)</f>
         <v>Aorta  (max point dose)</v>
       </c>
-      <c r="P28" s="317" t="str">
+      <c r="P28" s="311" t="str">
         <f t="shared" ref="P28:P45" si="0">G35</f>
         <v>??</v>
       </c>
@@ -5978,7 +6051,7 @@
       <c r="D29" s="96"/>
       <c r="E29" s="96"/>
       <c r="F29" s="97"/>
-      <c r="G29" s="6" t="s">
+      <c r="G29" s="317" t="s">
         <v>66</v>
       </c>
       <c r="H29" s="131"/>
@@ -5989,11 +6062,11 @@
         <v>66</v>
       </c>
       <c r="M29" s="87"/>
-      <c r="O29" s="307" t="str">
+      <c r="O29" s="301" t="str">
         <f>CONCATENATE(C35," ",F36)</f>
         <v>Aorta  V40Gy=</v>
       </c>
-      <c r="P29" s="317" t="str">
+      <c r="P29" s="311" t="str">
         <f t="shared" si="0"/>
         <v>??</v>
       </c>
@@ -6006,22 +6079,22 @@
       <c r="D30" s="96"/>
       <c r="E30" s="96"/>
       <c r="F30" s="97"/>
-      <c r="G30" s="7" t="s">
+      <c r="G30" s="329" t="s">
         <v>66</v>
       </c>
       <c r="H30" s="146"/>
       <c r="I30" s="147"/>
       <c r="J30" s="147"/>
       <c r="K30" s="148"/>
-      <c r="L30" s="206" t="s">
+      <c r="L30" s="203" t="s">
         <v>66</v>
       </c>
       <c r="M30" s="87"/>
-      <c r="O30" s="307" t="str">
+      <c r="O30" s="301" t="str">
         <f>CONCATENATE(C37," ",F37)</f>
         <v>Artery-Pulmonary (max point dose)</v>
       </c>
-      <c r="P30" s="317" t="str">
+      <c r="P30" s="311" t="str">
         <f t="shared" si="0"/>
         <v>??</v>
       </c>
@@ -6029,36 +6102,36 @@
     <row r="31" spans="2:16" ht="14.25" x14ac:dyDescent="0.25">
       <c r="B31" s="94"/>
       <c r="C31" s="94" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="D31" s="96"/>
-      <c r="E31" s="325" t="s">
-        <v>171</v>
-      </c>
-      <c r="F31" s="326"/>
-      <c r="G31" s="201" t="s">
+      <c r="E31" s="345" t="s">
+        <v>170</v>
+      </c>
+      <c r="F31" s="346"/>
+      <c r="G31" s="199" t="s">
         <v>66</v>
       </c>
-      <c r="H31" s="185" t="s">
+      <c r="H31" s="184" t="s">
         <v>37</v>
       </c>
       <c r="I31" s="122"/>
       <c r="J31" s="122"/>
-      <c r="K31" s="208" t="s">
+      <c r="K31" s="204" t="s">
         <v>68</v>
       </c>
       <c r="L31" s="80" t="str">
         <f>'Calculations 48Gy4F_ or_ 60Gy5F'!K34</f>
         <v>??</v>
       </c>
-      <c r="M31" s="234" t="s">
+      <c r="M31" s="230" t="s">
         <v>51</v>
       </c>
-      <c r="O31" s="307" t="str">
+      <c r="O31" s="301" t="str">
         <f>CONCATENATE(C37," ",F38)</f>
         <v>Artery-Pulmonary V40Gy=</v>
       </c>
-      <c r="P31" s="317" t="str">
+      <c r="P31" s="311" t="str">
         <f t="shared" si="0"/>
         <v>??</v>
       </c>
@@ -6069,66 +6142,66 @@
         <v>64</v>
       </c>
       <c r="D32" s="96"/>
-      <c r="E32" s="325" t="s">
-        <v>173</v>
-      </c>
-      <c r="F32" s="326"/>
-      <c r="G32" s="198" t="s">
+      <c r="E32" s="345" t="s">
+        <v>172</v>
+      </c>
+      <c r="F32" s="346"/>
+      <c r="G32" s="326" t="s">
         <v>66</v>
       </c>
-      <c r="H32" s="235"/>
+      <c r="H32" s="231"/>
       <c r="I32" s="122"/>
       <c r="J32" s="122"/>
-      <c r="K32" s="236">
+      <c r="K32" s="232">
         <v>1500</v>
       </c>
-      <c r="L32" s="195" t="str">
+      <c r="L32" s="194" t="str">
         <f>IF(G32="??","??",IF(G32&lt;=K32,"Yes","No"))</f>
         <v>??</v>
       </c>
-      <c r="M32" s="237" t="s">
-        <v>190</v>
-      </c>
-      <c r="O32" s="307" t="str">
+      <c r="M32" s="233" t="s">
+        <v>188</v>
+      </c>
+      <c r="O32" s="301" t="str">
         <f>CONCATENATE(C39," ",F39)</f>
         <v>Spinal Canal (max point dose)</v>
       </c>
-      <c r="P32" s="317" t="str">
+      <c r="P32" s="311" t="str">
         <f t="shared" si="0"/>
         <v>??</v>
       </c>
     </row>
     <row r="33" spans="2:16" ht="15" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B33" s="94"/>
-      <c r="C33" s="194" t="s">
+      <c r="C33" s="193" t="s">
         <v>65</v>
       </c>
       <c r="D33" s="96"/>
-      <c r="E33" s="327" t="s">
-        <v>172</v>
-      </c>
-      <c r="F33" s="328"/>
-      <c r="G33" s="169" t="s">
+      <c r="E33" s="347" t="s">
+        <v>171</v>
+      </c>
+      <c r="F33" s="348"/>
+      <c r="G33" s="339" t="s">
         <v>66</v>
       </c>
-      <c r="H33" s="235"/>
+      <c r="H33" s="231"/>
       <c r="I33" s="96"/>
       <c r="J33" s="96"/>
       <c r="K33" s="144">
         <v>1000</v>
       </c>
-      <c r="L33" s="195" t="str">
+      <c r="L33" s="194" t="str">
         <f>IF(G33="??","??",IF(G33&lt;=K33,"Yes","No"))</f>
         <v>??</v>
       </c>
-      <c r="M33" s="237" t="s">
-        <v>190</v>
-      </c>
-      <c r="O33" s="307" t="str">
+      <c r="M33" s="233" t="s">
+        <v>188</v>
+      </c>
+      <c r="O33" s="301" t="str">
         <f>CONCATENATE(C39," ",F40)</f>
         <v>Spinal Canal V20.8Gy=</v>
       </c>
-      <c r="P33" s="317" t="str">
+      <c r="P33" s="311" t="str">
         <f t="shared" si="0"/>
         <v>??</v>
       </c>
@@ -6150,28 +6223,28 @@
       <c r="K34" s="119"/>
       <c r="L34" s="86"/>
       <c r="M34" s="87"/>
-      <c r="O34" s="307" t="str">
+      <c r="O34" s="301" t="str">
         <f>CONCATENATE(C39," ",F41)</f>
         <v>Spinal Canal V13.6Gy=</v>
       </c>
-      <c r="P34" s="317" t="str">
+      <c r="P34" s="311" t="str">
         <f t="shared" si="0"/>
         <v>??</v>
       </c>
     </row>
     <row r="35" spans="2:16" x14ac:dyDescent="0.2">
       <c r="B35" s="94"/>
-      <c r="C35" s="209" t="s">
-        <v>130</v>
+      <c r="C35" s="205" t="s">
+        <v>129</v>
       </c>
       <c r="D35" s="107" t="s">
         <v>37</v>
       </c>
       <c r="E35" s="122"/>
-      <c r="F35" s="238" t="s">
+      <c r="F35" s="234" t="s">
         <v>60</v>
       </c>
-      <c r="G35" s="3" t="s">
+      <c r="G35" s="330" t="s">
         <v>66</v>
       </c>
       <c r="H35" s="115"/>
@@ -6185,37 +6258,36 @@
         <v>??</v>
       </c>
       <c r="M35" s="140" t="s">
-        <v>164</v>
-      </c>
-      <c r="O35" s="307" t="str">
+        <v>163</v>
+      </c>
+      <c r="O35" s="301" t="str">
         <f>CONCATENATE(C42," ",F42)</f>
         <v>Spinal Canal-PRV 5mm (max point dose)</v>
       </c>
-      <c r="P35" s="317" t="str">
+      <c r="P35" s="311" t="str">
         <f t="shared" si="0"/>
         <v>??</v>
       </c>
     </row>
     <row r="36" spans="2:16" ht="14.25" x14ac:dyDescent="0.2">
       <c r="B36" s="94"/>
-      <c r="C36" s="239"/>
-      <c r="D36" s="240" t="s">
-        <v>195</v>
+      <c r="C36" s="235"/>
+      <c r="D36" s="236" t="s">
+        <v>193</v>
       </c>
       <c r="E36" s="147"/>
-      <c r="F36" s="241" t="s">
-        <v>137</v>
-      </c>
-      <c r="G36" s="4" t="str">
-        <f>IF(G35&lt;=4000,"OK","??")</f>
-        <v>??</v>
+      <c r="F36" s="237" t="s">
+        <v>136</v>
+      </c>
+      <c r="G36" s="331" t="s">
+        <v>66</v>
       </c>
       <c r="H36" s="131" t="s">
         <v>37</v>
       </c>
       <c r="I36" s="122"/>
       <c r="J36" s="122"/>
-      <c r="K36" s="242">
+      <c r="K36" s="238">
         <v>10</v>
       </c>
       <c r="L36" s="12" t="str">
@@ -6223,36 +6295,36 @@
         <v>??</v>
       </c>
       <c r="M36" s="87" t="s">
-        <v>164</v>
-      </c>
-      <c r="O36" s="307" t="str">
+        <v>163</v>
+      </c>
+      <c r="O36" s="301" t="str">
         <f>CONCATENATE(C43," ",F43)</f>
         <v>Ipsilat. Brach. Plex. (max point dose)</v>
       </c>
-      <c r="P36" s="317" t="str">
+      <c r="P36" s="311" t="str">
         <f t="shared" si="0"/>
         <v>??</v>
       </c>
     </row>
     <row r="37" spans="2:16" x14ac:dyDescent="0.2">
       <c r="B37" s="94"/>
-      <c r="C37" s="194" t="s">
-        <v>167</v>
+      <c r="C37" s="193" t="s">
+        <v>166</v>
       </c>
       <c r="D37" s="96"/>
-      <c r="E37" s="243"/>
-      <c r="F37" s="238" t="s">
+      <c r="E37" s="239"/>
+      <c r="F37" s="234" t="s">
         <v>60</v>
       </c>
-      <c r="G37" s="4" t="s">
+      <c r="G37" s="340" t="s">
         <v>66</v>
       </c>
-      <c r="H37" s="184" t="s">
+      <c r="H37" s="183" t="s">
         <v>37</v>
       </c>
       <c r="I37" s="122"/>
       <c r="J37" s="122"/>
-      <c r="K37" s="242">
+      <c r="K37" s="238">
         <v>4800</v>
       </c>
       <c r="L37" s="12" t="str">
@@ -6260,35 +6332,34 @@
         <v>??</v>
       </c>
       <c r="M37" s="87" t="s">
-        <v>164</v>
-      </c>
-      <c r="O37" s="307" t="str">
+        <v>163</v>
+      </c>
+      <c r="O37" s="301" t="str">
         <f>CONCATENATE(C43," ",F44)</f>
         <v>Ipsilat. Brach. Plex. V23.6Gy=</v>
       </c>
-      <c r="P37" s="317" t="str">
+      <c r="P37" s="311" t="str">
         <f t="shared" si="0"/>
         <v>??</v>
       </c>
     </row>
     <row r="38" spans="2:16" ht="14.25" x14ac:dyDescent="0.2">
       <c r="B38" s="94"/>
-      <c r="C38" s="239"/>
-      <c r="D38" s="240" t="s">
-        <v>195</v>
+      <c r="C38" s="235"/>
+      <c r="D38" s="236" t="s">
+        <v>193</v>
       </c>
       <c r="E38" s="147"/>
-      <c r="F38" s="241" t="s">
-        <v>137</v>
-      </c>
-      <c r="G38" s="4" t="str">
-        <f>IF(G37&lt;=4000,"OK","??")</f>
-        <v>??</v>
+      <c r="F38" s="237" t="s">
+        <v>136</v>
+      </c>
+      <c r="G38" s="331" t="s">
+        <v>66</v>
       </c>
       <c r="H38" s="131"/>
       <c r="I38" s="122"/>
       <c r="J38" s="122"/>
-      <c r="K38" s="242">
+      <c r="K38" s="238">
         <v>10</v>
       </c>
       <c r="L38" s="12" t="str">
@@ -6296,13 +6367,13 @@
         <v>??</v>
       </c>
       <c r="M38" s="140" t="s">
-        <v>164</v>
-      </c>
-      <c r="O38" s="307" t="str">
+        <v>163</v>
+      </c>
+      <c r="O38" s="301" t="str">
         <f>CONCATENATE(C45," ",F45)</f>
         <v>Skin V30Gy=</v>
       </c>
-      <c r="P38" s="317" t="str">
+      <c r="P38" s="311" t="str">
         <f t="shared" si="0"/>
         <v>??</v>
       </c>
@@ -6314,10 +6385,10 @@
       </c>
       <c r="D39" s="96"/>
       <c r="E39" s="122"/>
-      <c r="F39" s="244" t="s">
+      <c r="F39" s="240" t="s">
         <v>60</v>
       </c>
-      <c r="G39" s="169" t="s">
+      <c r="G39" s="341" t="s">
         <v>66</v>
       </c>
       <c r="H39" s="97"/>
@@ -6335,11 +6406,11 @@
       <c r="M39" s="87" t="s">
         <v>61</v>
       </c>
-      <c r="O39" s="307" t="str">
+      <c r="O39" s="301" t="str">
         <f>CONCATENATE(C46," ",F46)</f>
         <v>Heart (max point dose)</v>
       </c>
-      <c r="P39" s="317" t="str">
+      <c r="P39" s="311" t="str">
         <f t="shared" si="0"/>
         <v>??</v>
       </c>
@@ -6347,16 +6418,15 @@
     <row r="40" spans="2:16" ht="14.25" x14ac:dyDescent="0.2">
       <c r="B40" s="94"/>
       <c r="C40" s="94"/>
-      <c r="D40" s="329" t="s">
-        <v>192</v>
-      </c>
-      <c r="E40" s="330"/>
-      <c r="F40" s="245" t="s">
-        <v>143</v>
-      </c>
-      <c r="G40" s="4" t="str">
-        <f>IF(G39&lt;=2080,"OK","??")</f>
-        <v>??</v>
+      <c r="D40" s="349" t="s">
+        <v>190</v>
+      </c>
+      <c r="E40" s="350"/>
+      <c r="F40" s="241" t="s">
+        <v>142</v>
+      </c>
+      <c r="G40" s="331" t="s">
+        <v>66</v>
       </c>
       <c r="H40" s="131"/>
       <c r="I40" s="122"/>
@@ -6371,28 +6441,27 @@
       <c r="M40" s="87" t="s">
         <v>61</v>
       </c>
-      <c r="O40" s="307" t="str">
+      <c r="O40" s="301" t="str">
         <f>CONCATENATE(C46," ",F47)</f>
         <v>Heart V28Gy=</v>
       </c>
-      <c r="P40" s="317" t="str">
+      <c r="P40" s="311" t="str">
         <f t="shared" si="0"/>
         <v>??</v>
       </c>
     </row>
     <row r="41" spans="2:16" ht="14.25" x14ac:dyDescent="0.2">
       <c r="B41" s="94"/>
-      <c r="C41" s="179"/>
+      <c r="C41" s="178"/>
       <c r="D41" s="143" t="s">
-        <v>194</v>
+        <v>192</v>
       </c>
       <c r="E41" s="147"/>
-      <c r="F41" s="246" t="s">
-        <v>144</v>
-      </c>
-      <c r="G41" s="4" t="str">
-        <f>IF(G39&lt;=1360,"OK","??")</f>
-        <v>??</v>
+      <c r="F41" s="242" t="s">
+        <v>143</v>
+      </c>
+      <c r="G41" s="331" t="s">
+        <v>66</v>
       </c>
       <c r="H41" s="146"/>
       <c r="I41" s="147"/>
@@ -6407,26 +6476,26 @@
       <c r="M41" s="87" t="s">
         <v>61</v>
       </c>
-      <c r="O41" s="307" t="str">
+      <c r="O41" s="301" t="str">
         <f>CONCATENATE(C48," ",F48)</f>
         <v>Esophagus (max point dose)</v>
       </c>
-      <c r="P41" s="317" t="str">
+      <c r="P41" s="311" t="str">
         <f t="shared" si="0"/>
         <v>??</v>
       </c>
     </row>
     <row r="42" spans="2:16" x14ac:dyDescent="0.2">
       <c r="B42" s="94"/>
-      <c r="C42" s="247" t="s">
+      <c r="C42" s="243" t="s">
         <v>35</v>
       </c>
       <c r="D42" s="122"/>
       <c r="E42" s="122"/>
-      <c r="F42" s="248" t="s">
+      <c r="F42" s="244" t="s">
         <v>60</v>
       </c>
-      <c r="G42" s="198" t="s">
+      <c r="G42" s="338" t="s">
         <v>66</v>
       </c>
       <c r="H42" s="131"/>
@@ -6440,26 +6509,26 @@
         <v>??</v>
       </c>
       <c r="M42" s="87"/>
-      <c r="O42" s="307" t="str">
+      <c r="O42" s="301" t="str">
         <f>CONCATENATE(C48," ",F49)</f>
         <v>Esophagus V18.8Gy=</v>
       </c>
-      <c r="P42" s="317" t="str">
+      <c r="P42" s="311" t="str">
         <f t="shared" si="0"/>
         <v>??</v>
       </c>
     </row>
     <row r="43" spans="2:16" x14ac:dyDescent="0.2">
       <c r="B43" s="94"/>
-      <c r="C43" s="209" t="s">
-        <v>185</v>
+      <c r="C43" s="205" t="s">
+        <v>183</v>
       </c>
       <c r="D43" s="107"/>
       <c r="E43" s="122"/>
-      <c r="F43" s="238" t="s">
+      <c r="F43" s="234" t="s">
         <v>60</v>
       </c>
-      <c r="G43" s="170" t="s">
+      <c r="G43" s="169" t="s">
         <v>66</v>
       </c>
       <c r="H43" s="115"/>
@@ -6473,13 +6542,13 @@
         <v>??</v>
       </c>
       <c r="M43" s="140" t="s">
-        <v>164</v>
-      </c>
-      <c r="O43" s="307" t="str">
+        <v>163</v>
+      </c>
+      <c r="O43" s="301" t="str">
         <f>CONCATENATE(C50," ",F50)</f>
         <v>*Chestwall (rib) (max point dose)</v>
       </c>
-      <c r="P43" s="317" t="str">
+      <c r="P43" s="311" t="str">
         <f t="shared" si="0"/>
         <v>??</v>
       </c>
@@ -6488,17 +6557,16 @@
       <c r="B44" s="94"/>
       <c r="C44" s="94"/>
       <c r="D44" s="143" t="s">
-        <v>196</v>
+        <v>194</v>
       </c>
       <c r="E44" s="152" t="s">
         <v>37</v>
       </c>
-      <c r="F44" s="246" t="s">
-        <v>145</v>
-      </c>
-      <c r="G44" s="4" t="str">
-        <f>IF(G43&lt;=2360,"OK","??")</f>
-        <v>??</v>
+      <c r="F44" s="242" t="s">
+        <v>144</v>
+      </c>
+      <c r="G44" s="4" t="s">
+        <v>66</v>
       </c>
       <c r="H44" s="131"/>
       <c r="I44" s="122"/>
@@ -6511,30 +6579,30 @@
         <v>??</v>
       </c>
       <c r="M44" s="140" t="s">
-        <v>191</v>
-      </c>
-      <c r="O44" s="307" t="str">
+        <v>189</v>
+      </c>
+      <c r="O44" s="301" t="str">
         <f>CONCATENATE(C50," ",F51)</f>
         <v>*Chestwall (rib) V40Gy=</v>
       </c>
-      <c r="P44" s="317" t="str">
+      <c r="P44" s="311" t="str">
         <f t="shared" si="0"/>
         <v>??</v>
       </c>
     </row>
     <row r="45" spans="2:16" ht="14.25" x14ac:dyDescent="0.2">
       <c r="B45" s="94"/>
-      <c r="C45" s="247" t="s">
+      <c r="C45" s="243" t="s">
         <v>14</v>
       </c>
-      <c r="D45" s="230" t="s">
-        <v>197</v>
+      <c r="D45" s="226" t="s">
+        <v>195</v>
       </c>
       <c r="E45" s="122"/>
-      <c r="F45" s="245" t="s">
-        <v>119</v>
-      </c>
-      <c r="G45" s="198" t="s">
+      <c r="F45" s="241" t="s">
+        <v>118</v>
+      </c>
+      <c r="G45" s="326" t="s">
         <v>66</v>
       </c>
       <c r="H45" s="131" t="s">
@@ -6550,13 +6618,13 @@
         <v>??</v>
       </c>
       <c r="M45" s="140" t="s">
-        <v>191</v>
-      </c>
-      <c r="O45" s="307" t="str">
+        <v>189</v>
+      </c>
+      <c r="O45" s="301" t="str">
         <f>CONCATENATE(C50," ",F52)</f>
         <v>*Chestwall (rib) V30Gy=</v>
       </c>
-      <c r="P45" s="317" t="str">
+      <c r="P45" s="311" t="str">
         <f t="shared" si="0"/>
         <v>??</v>
       </c>
@@ -6568,10 +6636,10 @@
       </c>
       <c r="D46" s="107"/>
       <c r="E46" s="122"/>
-      <c r="F46" s="244" t="s">
+      <c r="F46" s="240" t="s">
         <v>60</v>
       </c>
-      <c r="G46" s="170" t="s">
+      <c r="G46" s="332" t="s">
         <v>66</v>
       </c>
       <c r="H46" s="115"/>
@@ -6587,30 +6655,29 @@
       <c r="M46" s="87" t="s">
         <v>61</v>
       </c>
-      <c r="O46" s="307" t="str">
+      <c r="O46" s="301" t="str">
         <f>CONCATENATE(A53," ",F53)</f>
         <v>Trachea (max point dose)</v>
       </c>
-      <c r="P46" s="318">
+      <c r="P46" s="312" t="str">
         <f>A54</f>
-        <v>0</v>
+        <v>??</v>
       </c>
     </row>
     <row r="47" spans="2:16" ht="14.25" x14ac:dyDescent="0.2">
       <c r="B47" s="94"/>
-      <c r="C47" s="239" t="s">
+      <c r="C47" s="235" t="s">
         <v>37</v>
       </c>
-      <c r="D47" s="240" t="s">
-        <v>198</v>
+      <c r="D47" s="236" t="s">
+        <v>196</v>
       </c>
       <c r="E47" s="147"/>
-      <c r="F47" s="249" t="s">
-        <v>120</v>
-      </c>
-      <c r="G47" s="4" t="str">
-        <f>IF(G46&lt;=2800,"OK","??")</f>
-        <v>??</v>
+      <c r="F47" s="245" t="s">
+        <v>119</v>
+      </c>
+      <c r="G47" s="331" t="s">
+        <v>66</v>
       </c>
       <c r="H47" s="131"/>
       <c r="I47" s="122"/>
@@ -6625,13 +6692,13 @@
       <c r="M47" s="87" t="s">
         <v>61</v>
       </c>
-      <c r="O47" s="307" t="str">
+      <c r="O47" s="301" t="str">
         <f>CONCATENATE(A53," ",F55)</f>
         <v>Trachea V15.6Gy=</v>
       </c>
-      <c r="P47" s="318">
+      <c r="P47" s="312" t="str">
         <f>A55</f>
-        <v>0</v>
+        <v>??</v>
       </c>
     </row>
     <row r="48" spans="2:16" x14ac:dyDescent="0.2">
@@ -6641,10 +6708,10 @@
       </c>
       <c r="D48" s="96"/>
       <c r="E48" s="122"/>
-      <c r="F48" s="244" t="s">
+      <c r="F48" s="240" t="s">
         <v>60</v>
       </c>
-      <c r="G48" s="170" t="s">
+      <c r="G48" s="332" t="s">
         <v>66</v>
       </c>
       <c r="H48" s="115"/>
@@ -6658,30 +6725,29 @@
         <v>??</v>
       </c>
       <c r="M48" s="140" t="s">
-        <v>191</v>
-      </c>
-      <c r="O48" s="307" t="str">
+        <v>189</v>
+      </c>
+      <c r="O48" s="301" t="str">
         <f>CONCATENATE(B53," ",F53)</f>
         <v>Bronchus (max point dose)</v>
       </c>
-      <c r="P48" s="318">
+      <c r="P48" s="312" t="str">
         <f>B54</f>
-        <v>0</v>
+        <v>??</v>
       </c>
     </row>
     <row r="49" spans="1:16" ht="14.25" x14ac:dyDescent="0.2">
       <c r="B49" s="94"/>
-      <c r="C49" s="179"/>
-      <c r="D49" s="250" t="s">
-        <v>199</v>
+      <c r="C49" s="178"/>
+      <c r="D49" s="246" t="s">
+        <v>197</v>
       </c>
       <c r="E49" s="147"/>
-      <c r="F49" s="249" t="s">
-        <v>121</v>
-      </c>
-      <c r="G49" s="4" t="str">
-        <f>IF(G48&lt;=1880,"OK","??")</f>
-        <v>??</v>
+      <c r="F49" s="245" t="s">
+        <v>120</v>
+      </c>
+      <c r="G49" s="331" t="s">
+        <v>66</v>
       </c>
       <c r="H49" s="131"/>
       <c r="I49" s="122"/>
@@ -6694,26 +6760,26 @@
         <v>??</v>
       </c>
       <c r="M49" s="87"/>
-      <c r="O49" s="307" t="str">
+      <c r="O49" s="301" t="str">
         <f>CONCATENATE(B53," ",F55)</f>
         <v>Bronchus V15.6Gy=</v>
       </c>
-      <c r="P49" s="318">
+      <c r="P49" s="312" t="str">
         <f>B55</f>
-        <v>0</v>
+        <v>??</v>
       </c>
     </row>
     <row r="50" spans="1:16" x14ac:dyDescent="0.2">
       <c r="B50" s="94"/>
       <c r="C50" s="151" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="D50" s="107"/>
       <c r="E50" s="122"/>
-      <c r="F50" s="244" t="s">
+      <c r="F50" s="240" t="s">
         <v>60</v>
       </c>
-      <c r="G50" s="170" t="s">
+      <c r="G50" s="332" t="s">
         <v>66</v>
       </c>
       <c r="H50" s="115"/>
@@ -6727,13 +6793,13 @@
         <v>??</v>
       </c>
       <c r="M50" s="140" t="s">
-        <v>164</v>
-      </c>
-      <c r="O50" s="307" t="str">
+        <v>163</v>
+      </c>
+      <c r="O50" s="301" t="str">
         <f>CONCATENATE(C53," ",C54," ",F53)</f>
         <v>Proximal Trachea and Bronchial Tree (max point dose)</v>
       </c>
-      <c r="P50" s="317" t="str">
+      <c r="P50" s="311" t="str">
         <f>G53</f>
         <v>??</v>
       </c>
@@ -6742,15 +6808,14 @@
       <c r="B51" s="94"/>
       <c r="C51" s="94"/>
       <c r="D51" s="143" t="s">
-        <v>200</v>
+        <v>198</v>
       </c>
       <c r="E51" s="96"/>
-      <c r="F51" s="246" t="s">
-        <v>137</v>
-      </c>
-      <c r="G51" s="4" t="str">
-        <f>IF(G50&lt;=4000,"OK","??")</f>
-        <v>??</v>
+      <c r="F51" s="242" t="s">
+        <v>136</v>
+      </c>
+      <c r="G51" s="331" t="s">
+        <v>66</v>
       </c>
       <c r="H51" s="131"/>
       <c r="I51" s="122"/>
@@ -6763,13 +6828,13 @@
         <v>??</v>
       </c>
       <c r="M51" s="87" t="s">
-        <v>164</v>
-      </c>
-      <c r="O51" s="307" t="str">
+        <v>163</v>
+      </c>
+      <c r="O51" s="301" t="str">
         <f>CONCATENATE(C53," ",C54," ",F55)</f>
         <v>Proximal Trachea and Bronchial Tree V15.6Gy=</v>
       </c>
-      <c r="P51" s="317" t="str">
+      <c r="P51" s="311" t="str">
         <f>G55</f>
         <v>??</v>
       </c>
@@ -6777,18 +6842,17 @@
     <row r="52" spans="1:16" ht="15" thickBot="1" x14ac:dyDescent="0.25">
       <c r="B52" s="94"/>
       <c r="C52" s="94"/>
-      <c r="D52" s="251" t="s">
-        <v>193</v>
-      </c>
-      <c r="E52" s="252" t="s">
+      <c r="D52" s="247" t="s">
+        <v>191</v>
+      </c>
+      <c r="E52" s="248" t="s">
         <v>37</v>
       </c>
-      <c r="F52" s="253" t="s">
-        <v>119</v>
-      </c>
-      <c r="G52" s="7" t="str">
-        <f>IF(G50&lt;=3000,"OK","??")</f>
-        <v>??</v>
+      <c r="F52" s="249" t="s">
+        <v>118</v>
+      </c>
+      <c r="G52" s="342" t="s">
+        <v>66</v>
       </c>
       <c r="H52" s="146"/>
       <c r="I52" s="147"/>
@@ -6803,33 +6867,32 @@
       <c r="M52" s="87" t="s">
         <v>61</v>
       </c>
-      <c r="O52" s="307" t="str">
+      <c r="O52" s="301" t="str">
         <f>CONCATENATE(C56," ",C57," ",F56)</f>
         <v>Stomach and Intestines (max point dose)</v>
       </c>
-      <c r="P52" s="317" t="str">
+      <c r="P52" s="311" t="str">
         <f>G56</f>
         <v>??</v>
       </c>
     </row>
     <row r="53" spans="1:16" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A53" s="298" t="s">
-        <v>205</v>
-      </c>
-      <c r="B53" s="299" t="s">
-        <v>206</v>
+      <c r="A53" s="294" t="s">
+        <v>203</v>
+      </c>
+      <c r="B53" s="295" t="s">
+        <v>204</v>
       </c>
       <c r="C53" s="151" t="s">
         <v>16</v>
       </c>
       <c r="D53" s="107"/>
       <c r="E53" s="107"/>
-      <c r="F53" s="254" t="s">
+      <c r="F53" s="250" t="s">
         <v>60</v>
       </c>
-      <c r="G53" s="198" t="str">
-        <f>IF(MAX(A54:B54)&gt;0,MAX(A54:B54),"??")</f>
-        <v>??</v>
+      <c r="G53" s="197" t="s">
+        <v>66</v>
       </c>
       <c r="H53" s="115" t="s">
         <v>37</v>
@@ -6839,71 +6902,70 @@
       <c r="K53" s="116">
         <v>3480</v>
       </c>
-      <c r="L53" s="255" t="str">
+      <c r="L53" s="251" t="str">
         <f>IF(G53="??","??",IF(G53&lt;=3480,"Yes","No"))</f>
         <v>??</v>
       </c>
       <c r="M53" s="87" t="s">
         <v>61</v>
       </c>
-      <c r="O53" s="307" t="str">
+      <c r="O53" s="301" t="str">
         <f>CONCATENATE(C56," ",C57," ",F57)</f>
         <v>Stomach and Intestines V21Gy=</v>
       </c>
-      <c r="P53" s="317" t="str">
+      <c r="P53" s="311" t="str">
         <f>G57</f>
         <v>??</v>
       </c>
     </row>
     <row r="54" spans="1:16" x14ac:dyDescent="0.2">
-      <c r="A54" s="300">
-        <v>0</v>
-      </c>
-      <c r="B54" s="301">
-        <v>0</v>
+      <c r="A54" s="333" t="s">
+        <v>66</v>
+      </c>
+      <c r="B54" s="334" t="s">
+        <v>66</v>
       </c>
       <c r="C54" s="94" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="D54" s="96"/>
       <c r="E54" s="147"/>
-      <c r="F54" s="256"/>
-      <c r="G54" s="171" t="s">
-        <v>37</v>
+      <c r="F54" s="252"/>
+      <c r="G54" s="170" t="s">
+        <v>66</v>
       </c>
       <c r="H54" s="146"/>
       <c r="I54" s="147"/>
       <c r="J54" s="147"/>
       <c r="K54" s="148"/>
-      <c r="L54" s="257"/>
+      <c r="L54" s="253"/>
       <c r="M54" s="87"/>
-      <c r="O54" s="307" t="str">
+      <c r="O54" s="301" t="str">
         <f>C58</f>
         <v>Dosimetrist:</v>
       </c>
-      <c r="P54" s="311" t="str">
+      <c r="P54" s="305" t="str">
         <f>C59</f>
         <v>??</v>
       </c>
     </row>
     <row r="55" spans="1:16" ht="15" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A55" s="302">
-        <v>0</v>
-      </c>
-      <c r="B55" s="303">
-        <v>0</v>
-      </c>
-      <c r="C55" s="179"/>
-      <c r="D55" s="240" t="s">
-        <v>201</v>
+      <c r="A55" s="335" t="s">
+        <v>66</v>
+      </c>
+      <c r="B55" s="297" t="s">
+        <v>66</v>
+      </c>
+      <c r="C55" s="178"/>
+      <c r="D55" s="236" t="s">
+        <v>199</v>
       </c>
       <c r="E55" s="147"/>
-      <c r="F55" s="249" t="s">
-        <v>122</v>
-      </c>
-      <c r="G55" s="198" t="str">
-        <f>IF(MAX(A55:B55)&gt;0,MAX(A55:B55),"??")</f>
-        <v>??</v>
+      <c r="F55" s="245" t="s">
+        <v>121</v>
+      </c>
+      <c r="G55" s="197" t="s">
+        <v>66</v>
       </c>
       <c r="H55" s="146" t="s">
         <v>37</v>
@@ -6920,11 +6982,11 @@
       <c r="M55" s="87" t="s">
         <v>61</v>
       </c>
-      <c r="O55" s="307" t="str">
+      <c r="O55" s="301" t="str">
         <f>G58</f>
         <v>Physicist:</v>
       </c>
-      <c r="P55" s="311" t="str">
+      <c r="P55" s="305" t="str">
         <f>G59</f>
         <v>??</v>
       </c>
@@ -6932,14 +6994,14 @@
     <row r="56" spans="1:16" x14ac:dyDescent="0.2">
       <c r="B56" s="94"/>
       <c r="C56" s="94" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="D56" s="96"/>
       <c r="E56" s="122"/>
-      <c r="F56" s="244" t="s">
+      <c r="F56" s="240" t="s">
         <v>60</v>
       </c>
-      <c r="G56" s="198" t="s">
+      <c r="G56" s="197" t="s">
         <v>66</v>
       </c>
       <c r="H56" s="97"/>
@@ -6953,32 +7015,31 @@
         <v>??</v>
       </c>
       <c r="M56" s="87" t="s">
-        <v>164</v>
-      </c>
-      <c r="O56" s="307" t="str">
+        <v>163</v>
+      </c>
+      <c r="O56" s="301" t="str">
         <f>K58</f>
         <v>Radiation Oncologist:</v>
       </c>
-      <c r="P56" s="311" t="str">
+      <c r="P56" s="305" t="str">
         <f>K59</f>
         <v>??</v>
       </c>
     </row>
     <row r="57" spans="1:16" ht="16.5" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B57" s="94"/>
-      <c r="C57" s="258" t="s">
-        <v>136</v>
-      </c>
-      <c r="D57" s="259" t="s">
-        <v>204</v>
+      <c r="C57" s="254" t="s">
+        <v>135</v>
+      </c>
+      <c r="D57" s="255" t="s">
+        <v>202</v>
       </c>
       <c r="E57" s="96"/>
-      <c r="F57" s="246" t="s">
-        <v>163</v>
-      </c>
-      <c r="G57" s="167" t="str">
-        <f>IF(G56&lt;=2100,"OK","??")</f>
-        <v>??</v>
+      <c r="F57" s="242" t="s">
+        <v>162</v>
+      </c>
+      <c r="G57" s="167" t="s">
+        <v>66</v>
       </c>
       <c r="H57" s="97" t="s">
         <v>37</v>
@@ -6993,13 +7054,13 @@
         <v>??</v>
       </c>
       <c r="M57" s="87" t="s">
-        <v>164</v>
-      </c>
-      <c r="O57" s="307" t="str">
+        <v>163</v>
+      </c>
+      <c r="O57" s="301" t="str">
         <f>B60</f>
         <v>NOTES:</v>
       </c>
-      <c r="P57" s="311">
+      <c r="P57" s="305">
         <f>C60</f>
         <v>0</v>
       </c>
@@ -7027,7 +7088,9 @@
       <c r="M58" s="87"/>
     </row>
     <row r="59" spans="1:16" x14ac:dyDescent="0.2">
-      <c r="B59" s="94"/>
+      <c r="B59" s="343" t="s">
+        <v>207</v>
+      </c>
       <c r="C59" s="22" t="s">
         <v>66</v>
       </c>
@@ -7048,10 +7111,10 @@
     </row>
     <row r="60" spans="1:16" x14ac:dyDescent="0.2">
       <c r="B60" s="101" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="C60" s="21"/>
-      <c r="D60" s="183" t="s">
+      <c r="D60" s="182" t="s">
         <v>37</v>
       </c>
       <c r="E60" s="21"/>
@@ -7069,22 +7132,22 @@
       <c r="C61" s="90"/>
       <c r="D61" s="90"/>
       <c r="E61" s="90"/>
-      <c r="F61" s="260" t="s">
-        <v>126</v>
-      </c>
-      <c r="G61" s="261" t="s">
-        <v>124</v>
-      </c>
-      <c r="H61" s="260"/>
-      <c r="I61" s="261"/>
-      <c r="J61" s="261"/>
-      <c r="K61" s="260"/>
-      <c r="L61" s="262"/>
+      <c r="F61" s="256" t="s">
+        <v>125</v>
+      </c>
+      <c r="G61" s="257" t="s">
+        <v>123</v>
+      </c>
+      <c r="H61" s="256"/>
+      <c r="I61" s="257"/>
+      <c r="J61" s="257"/>
+      <c r="K61" s="256"/>
+      <c r="L61" s="258"/>
       <c r="M61" s="87"/>
     </row>
     <row r="62" spans="1:16" x14ac:dyDescent="0.2">
       <c r="B62" s="153" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
       <c r="C62" s="88"/>
       <c r="D62" s="88"/>
@@ -7166,8 +7229,8 @@
   </sheetPr>
   <dimension ref="A1:P60"/>
   <sheetViews>
-    <sheetView topLeftCell="A4" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="N11" sqref="N11"/>
+    <sheetView zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="R20" sqref="R20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -7183,28 +7246,28 @@
     <col min="11" max="11" width="14.42578125" style="1" customWidth="1"/>
     <col min="12" max="12" width="17.42578125" style="1" customWidth="1"/>
     <col min="13" max="13" width="14" style="2" customWidth="1"/>
-    <col min="15" max="15" width="38.85546875" style="319" bestFit="1" customWidth="1"/>
-    <col min="16" max="16" width="13.5703125" style="320" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="38.85546875" style="313" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="13.5703125" style="314" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="2:16" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B1" s="210" t="s">
-        <v>157</v>
-      </c>
-      <c r="C1" s="211"/>
-      <c r="D1" s="210"/>
-      <c r="E1" s="211"/>
-      <c r="F1" s="212"/>
-      <c r="G1" s="212"/>
-      <c r="H1" s="213" t="s">
+      <c r="B1" s="206" t="s">
         <v>156</v>
       </c>
-      <c r="I1" s="210"/>
-      <c r="J1" s="210"/>
-      <c r="K1" s="214"/>
-      <c r="L1" s="214"/>
+      <c r="C1" s="207"/>
+      <c r="D1" s="206"/>
+      <c r="E1" s="207"/>
+      <c r="F1" s="208"/>
+      <c r="G1" s="208"/>
+      <c r="H1" s="209" t="s">
+        <v>155</v>
+      </c>
+      <c r="I1" s="206"/>
+      <c r="J1" s="206"/>
+      <c r="K1" s="210"/>
+      <c r="L1" s="210"/>
       <c r="M1" s="87"/>
-      <c r="O1" s="306"/>
+      <c r="O1" s="300"/>
     </row>
     <row r="2" spans="2:16" x14ac:dyDescent="0.2">
       <c r="B2" s="82"/>
@@ -7213,7 +7276,7 @@
       <c r="E2" s="83"/>
       <c r="F2" s="84"/>
       <c r="G2" s="85" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="H2" s="84"/>
       <c r="I2" s="83"/>
@@ -7221,7 +7284,7 @@
       <c r="K2" s="84"/>
       <c r="L2" s="86"/>
       <c r="M2" s="87"/>
-      <c r="O2" s="306"/>
+      <c r="O2" s="300"/>
     </row>
     <row r="3" spans="2:16" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
       <c r="B3" s="89"/>
@@ -7238,23 +7301,23 @@
       <c r="K3" s="91"/>
       <c r="L3" s="93"/>
       <c r="M3" s="87"/>
-      <c r="O3" s="306"/>
+      <c r="O3" s="300"/>
     </row>
     <row r="4" spans="2:16" x14ac:dyDescent="0.2">
       <c r="B4" s="94"/>
       <c r="C4" s="95" t="s">
         <v>0</v>
       </c>
-      <c r="D4" s="19" t="s">
+      <c r="D4" s="319" t="s">
         <v>66</v>
       </c>
       <c r="E4" s="96"/>
       <c r="F4" s="95" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
       <c r="G4" s="97"/>
-      <c r="H4" s="163">
-        <v>6000</v>
+      <c r="H4" s="324" t="s">
+        <v>66</v>
       </c>
       <c r="I4" s="96"/>
       <c r="J4" s="96"/>
@@ -7265,11 +7328,11 @@
         <v>66</v>
       </c>
       <c r="M4" s="87"/>
-      <c r="O4" s="307" t="str">
+      <c r="O4" s="301" t="str">
         <f>C4</f>
         <v>Patient:</v>
       </c>
-      <c r="P4" s="312" t="str">
+      <c r="P4" s="306" t="str">
         <f>D4</f>
         <v>??</v>
       </c>
@@ -7284,26 +7347,26 @@
       </c>
       <c r="E5" s="96"/>
       <c r="F5" s="95" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="G5" s="97"/>
-      <c r="H5" s="163">
-        <v>8</v>
+      <c r="H5" s="163" t="s">
+        <v>66</v>
       </c>
       <c r="I5" s="96"/>
       <c r="J5" s="96"/>
       <c r="K5" s="98" t="s">
         <v>3</v>
       </c>
-      <c r="L5" s="18" t="s">
+      <c r="L5" s="320" t="s">
         <v>66</v>
       </c>
       <c r="M5" s="87"/>
-      <c r="O5" s="307" t="str">
+      <c r="O5" s="301" t="str">
         <f>C5</f>
         <v>CR#:</v>
       </c>
-      <c r="P5" s="312" t="str">
+      <c r="P5" s="306" t="str">
         <f>D5</f>
         <v>??</v>
       </c>
@@ -7323,11 +7386,11 @@
       <c r="K6" s="84"/>
       <c r="L6" s="86"/>
       <c r="M6" s="87"/>
-      <c r="O6" s="307" t="str">
+      <c r="O6" s="301" t="str">
         <f>K4</f>
         <v>Site:</v>
       </c>
-      <c r="P6" s="312" t="str">
+      <c r="P6" s="306" t="str">
         <f>L4</f>
         <v>??</v>
       </c>
@@ -7340,7 +7403,7 @@
       <c r="D7" s="96"/>
       <c r="E7" s="96"/>
       <c r="F7" s="97"/>
-      <c r="G7" s="177" t="s">
+      <c r="G7" s="321" t="s">
         <v>66</v>
       </c>
       <c r="H7" s="97"/>
@@ -7349,11 +7412,11 @@
       <c r="K7" s="97"/>
       <c r="L7" s="100"/>
       <c r="M7" s="87"/>
-      <c r="O7" s="307" t="str">
+      <c r="O7" s="301" t="str">
         <f>K5</f>
         <v>Plan Name:</v>
       </c>
-      <c r="P7" s="312" t="str">
+      <c r="P7" s="306" t="str">
         <f>L5</f>
         <v>??</v>
       </c>
@@ -7366,7 +7429,7 @@
       <c r="D8" s="96"/>
       <c r="E8" s="96"/>
       <c r="F8" s="97"/>
-      <c r="G8" s="22" t="s">
+      <c r="G8" s="322" t="s">
         <v>66</v>
       </c>
       <c r="H8" s="97"/>
@@ -7377,13 +7440,13 @@
         <v>37</v>
       </c>
       <c r="M8" s="87"/>
-      <c r="O8" s="307" t="str">
+      <c r="O8" s="301" t="str">
         <f>F4</f>
         <v>Prescription Dose (cGy):</v>
       </c>
-      <c r="P8" s="312">
+      <c r="P8" s="306" t="str">
         <f>H4</f>
-        <v>6000</v>
+        <v>??</v>
       </c>
     </row>
     <row r="9" spans="2:16" x14ac:dyDescent="0.2">
@@ -7394,7 +7457,7 @@
       <c r="D9" s="96"/>
       <c r="E9" s="96"/>
       <c r="F9" s="97"/>
-      <c r="G9" s="177" t="s">
+      <c r="G9" s="321" t="s">
         <v>66</v>
       </c>
       <c r="H9" s="97"/>
@@ -7403,13 +7466,13 @@
       <c r="K9" s="97"/>
       <c r="L9" s="100"/>
       <c r="M9" s="87"/>
-      <c r="O9" s="307" t="str">
+      <c r="O9" s="301" t="str">
         <f>F5</f>
         <v>Fractions:</v>
       </c>
-      <c r="P9" s="312">
+      <c r="P9" s="306" t="str">
         <f>H5</f>
-        <v>8</v>
+        <v>??</v>
       </c>
     </row>
     <row r="10" spans="2:16" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
@@ -7420,7 +7483,7 @@
       <c r="D10" s="90"/>
       <c r="E10" s="90"/>
       <c r="F10" s="91"/>
-      <c r="G10" s="23" t="s">
+      <c r="G10" s="323" t="s">
         <v>66</v>
       </c>
       <c r="H10" s="91"/>
@@ -7429,11 +7492,11 @@
       <c r="K10" s="91"/>
       <c r="L10" s="93"/>
       <c r="M10" s="87"/>
-      <c r="O10" s="307" t="str">
+      <c r="O10" s="301" t="str">
         <f>C7</f>
         <v>GTV Volume (cc)</v>
       </c>
-      <c r="P10" s="312" t="str">
+      <c r="P10" s="306" t="str">
         <f>G7</f>
         <v>??</v>
       </c>
@@ -7461,11 +7524,11 @@
         <v>37</v>
       </c>
       <c r="M11" s="87"/>
-      <c r="O11" s="307" t="str">
+      <c r="O11" s="301" t="str">
         <f>C8</f>
         <v>ITV Volume (cc):</v>
       </c>
-      <c r="P11" s="313" t="str">
+      <c r="P11" s="307" t="str">
         <f>G8</f>
         <v>??</v>
       </c>
@@ -7477,10 +7540,10 @@
       <c r="E12" s="107"/>
       <c r="F12" s="107"/>
       <c r="G12" s="108" t="s">
-        <v>179</v>
+        <v>178</v>
       </c>
       <c r="H12" s="109" t="s">
-        <v>184</v>
+        <v>182</v>
       </c>
       <c r="I12" s="110" t="s">
         <v>20</v>
@@ -7495,11 +7558,11 @@
       <c r="M12" s="112" t="s">
         <v>44</v>
       </c>
-      <c r="O12" s="307" t="str">
+      <c r="O12" s="301" t="str">
         <f>C9</f>
         <v>PTV Volume (cc)</v>
       </c>
-      <c r="P12" s="314" t="str">
+      <c r="P12" s="308" t="str">
         <f>G9</f>
         <v>??</v>
       </c>
@@ -7510,8 +7573,8 @@
       <c r="D13" s="96"/>
       <c r="E13" s="96"/>
       <c r="F13" s="97"/>
-      <c r="G13" s="263" t="s">
-        <v>180</v>
+      <c r="G13" s="259" t="s">
+        <v>179</v>
       </c>
       <c r="H13" s="104"/>
       <c r="I13" s="95"/>
@@ -7521,11 +7584,11 @@
       </c>
       <c r="L13" s="100"/>
       <c r="M13" s="87"/>
-      <c r="O13" s="307" t="str">
+      <c r="O13" s="301" t="str">
         <f>C10</f>
         <v>Total Lung Volume (cc)</v>
       </c>
-      <c r="P13" s="313" t="str">
+      <c r="P13" s="307" t="str">
         <f>G10</f>
         <v>??</v>
       </c>
@@ -7538,14 +7601,14 @@
       <c r="D14" s="107"/>
       <c r="E14" s="107"/>
       <c r="F14" s="115"/>
-      <c r="G14" s="204" t="s">
+      <c r="G14" s="201" t="s">
         <v>66</v>
       </c>
-      <c r="H14" s="264"/>
-      <c r="I14" s="224"/>
+      <c r="H14" s="260"/>
+      <c r="I14" s="220"/>
       <c r="J14" s="107"/>
-      <c r="K14" s="222" t="s">
-        <v>162</v>
+      <c r="K14" s="218" t="s">
+        <v>161</v>
       </c>
       <c r="L14" s="10" t="str">
         <f>IF(G14="??","??",IF((AND((G14&gt;59.99%),(G14&lt;95.01%))),"Yes", "No"))</f>
@@ -7554,11 +7617,11 @@
       <c r="M14" s="87" t="s">
         <v>46</v>
       </c>
-      <c r="O14" s="307" t="str">
+      <c r="O14" s="301" t="str">
         <f>C14</f>
         <v>Plan Normalization Value (%)</v>
       </c>
-      <c r="P14" s="315" t="str">
+      <c r="P14" s="309" t="str">
         <f>G14</f>
         <v>??</v>
       </c>
@@ -7569,15 +7632,15 @@
       <c r="D15" s="107"/>
       <c r="E15" s="107"/>
       <c r="F15" s="115"/>
-      <c r="G15" s="223"/>
-      <c r="H15" s="223"/>
+      <c r="G15" s="219"/>
+      <c r="H15" s="219"/>
       <c r="I15" s="155"/>
       <c r="J15" s="107"/>
       <c r="K15" s="116"/>
       <c r="L15" s="10"/>
       <c r="M15" s="87"/>
-      <c r="O15" s="307"/>
-      <c r="P15" s="315"/>
+      <c r="O15" s="301"/>
+      <c r="P15" s="309"/>
     </row>
     <row r="16" spans="2:16" x14ac:dyDescent="0.2">
       <c r="B16" s="99" t="s">
@@ -7587,18 +7650,18 @@
       <c r="D16" s="83"/>
       <c r="E16" s="83"/>
       <c r="F16" s="118"/>
-      <c r="G16" s="225"/>
+      <c r="G16" s="221"/>
       <c r="H16" s="84"/>
       <c r="I16" s="156"/>
       <c r="J16" s="83"/>
       <c r="K16" s="119"/>
       <c r="L16" s="11"/>
       <c r="M16" s="87"/>
-      <c r="O16" s="307" t="str">
+      <c r="O16" s="301" t="str">
         <f>C17</f>
         <v>PTV- Minimum Dose</v>
       </c>
-      <c r="P16" s="313" t="str">
+      <c r="P16" s="307" t="str">
         <f>G17</f>
         <v>??</v>
       </c>
@@ -7611,25 +7674,25 @@
       <c r="D17" s="107"/>
       <c r="E17" s="107"/>
       <c r="F17" s="120"/>
-      <c r="G17" s="202" t="s">
+      <c r="G17" s="325" t="s">
         <v>66</v>
       </c>
-      <c r="H17" s="227"/>
+      <c r="H17" s="223"/>
       <c r="I17" s="155"/>
       <c r="J17" s="107"/>
       <c r="K17" s="116" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
       <c r="L17" s="10" t="str">
         <f>IF(G17="??","??",IF((AND((G17&gt;=60%),(G17&lt;=95%))),"Yes", "No"))</f>
         <v>??</v>
       </c>
       <c r="M17" s="87"/>
-      <c r="O17" s="307" t="str">
+      <c r="O17" s="301" t="str">
         <f>C18</f>
         <v>PTV - V100(%)</v>
       </c>
-      <c r="P17" s="313" t="str">
+      <c r="P17" s="307" t="str">
         <f>G18</f>
         <v>??</v>
       </c>
@@ -7642,27 +7705,27 @@
       <c r="D18" s="96"/>
       <c r="E18" s="96"/>
       <c r="F18" s="121"/>
-      <c r="G18" s="201" t="s">
+      <c r="G18" s="199" t="s">
         <v>66</v>
       </c>
-      <c r="H18" s="227"/>
+      <c r="H18" s="223"/>
       <c r="I18" s="122"/>
       <c r="J18" s="122"/>
       <c r="K18" s="123">
         <v>0.95</v>
       </c>
-      <c r="L18" s="196" t="str">
+      <c r="L18" s="195" t="str">
         <f>IF(G18="??","??",(IF(G18&gt;=95%,"Yes","No")))</f>
         <v>??</v>
       </c>
       <c r="M18" s="88" t="s">
         <v>31</v>
       </c>
-      <c r="O18" s="307" t="str">
+      <c r="O18" s="301" t="str">
         <f>C19</f>
         <v>PTV - V90 (%)</v>
       </c>
-      <c r="P18" s="313" t="str">
+      <c r="P18" s="307" t="str">
         <f>G19</f>
         <v>??</v>
       </c>
@@ -7675,27 +7738,27 @@
       <c r="D19" s="90"/>
       <c r="E19" s="90"/>
       <c r="F19" s="125"/>
-      <c r="G19" s="200" t="s">
+      <c r="G19" s="198" t="s">
         <v>66</v>
       </c>
-      <c r="H19" s="228"/>
+      <c r="H19" s="224"/>
       <c r="I19" s="126"/>
       <c r="J19" s="90"/>
       <c r="K19" s="127">
         <v>0.99</v>
       </c>
-      <c r="L19" s="196" t="str">
+      <c r="L19" s="195" t="str">
         <f>IF(G19="??","??",(IF(G19&gt;=99%,"Yes","No")))</f>
         <v>??</v>
       </c>
       <c r="M19" s="88" t="s">
         <v>32</v>
       </c>
-      <c r="O19" s="307" t="str">
+      <c r="O19" s="301" t="str">
         <f>CONCATENATE(C21," ",D21)</f>
         <v>Location V105% - PTV (cc) =</v>
       </c>
-      <c r="P19" s="316" t="str">
+      <c r="P19" s="310" t="str">
         <f>G21</f>
         <v>??</v>
       </c>
@@ -7715,11 +7778,11 @@
       <c r="K20" s="129"/>
       <c r="L20" s="14"/>
       <c r="M20" s="87"/>
-      <c r="O20" s="307" t="str">
+      <c r="O20" s="301" t="str">
         <f>CONCATENATE(C22," ",D22)</f>
         <v>Volume V100% (cc) =</v>
       </c>
-      <c r="P20" s="316" t="str">
+      <c r="P20" s="310" t="str">
         <f>G22</f>
         <v>??</v>
       </c>
@@ -7732,14 +7795,14 @@
         <v>40</v>
       </c>
       <c r="D21" s="122" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="E21" s="122"/>
       <c r="F21" s="131"/>
-      <c r="G21" s="198" t="s">
+      <c r="G21" s="326" t="s">
         <v>66</v>
       </c>
-      <c r="H21" s="172" t="str">
+      <c r="H21" s="171" t="str">
         <f>IFERROR(G21/G9,"??")</f>
         <v>??</v>
       </c>
@@ -7753,13 +7816,13 @@
         <v>??</v>
       </c>
       <c r="M21" s="140" t="s">
-        <v>186</v>
-      </c>
-      <c r="O21" s="307" t="str">
+        <v>184</v>
+      </c>
+      <c r="O21" s="301" t="str">
         <f>CONCATENATE(C24," ",D24)</f>
         <v>Location D³2cm (%) =</v>
       </c>
-      <c r="P21" s="317" t="str">
+      <c r="P21" s="311" t="str">
         <f>G24</f>
         <v>??</v>
       </c>
@@ -7772,16 +7835,16 @@
         <v>43</v>
       </c>
       <c r="D22" s="90" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="E22" s="90"/>
-      <c r="F22" s="176" t="s">
+      <c r="F22" s="175" t="s">
         <v>37</v>
       </c>
-      <c r="G22" s="199" t="s">
+      <c r="G22" s="327" t="s">
         <v>66</v>
       </c>
-      <c r="H22" s="173" t="str">
+      <c r="H22" s="172" t="str">
         <f>IFERROR(G22/G9,"??")</f>
         <v>??</v>
       </c>
@@ -7799,11 +7862,11 @@
       <c r="M22" s="87" t="s">
         <v>52</v>
       </c>
-      <c r="O22" s="307" t="str">
+      <c r="O22" s="301" t="str">
         <f>CONCATENATE(C25," ",D25)</f>
         <v>Volume V50% (cc) =</v>
       </c>
-      <c r="P22" s="317" t="str">
+      <c r="P22" s="311" t="str">
         <f>G25</f>
         <v>??</v>
       </c>
@@ -7823,11 +7886,11 @@
       <c r="K23" s="119"/>
       <c r="L23" s="11"/>
       <c r="M23" s="87"/>
-      <c r="O23" s="307" t="str">
+      <c r="O23" s="301" t="str">
         <f>C29</f>
         <v>Mean Dose (contralateral lung)</v>
       </c>
-      <c r="P23" s="317" t="str">
+      <c r="P23" s="311" t="str">
         <f>G29</f>
         <v>??</v>
       </c>
@@ -7844,7 +7907,7 @@
       </c>
       <c r="E24" s="122"/>
       <c r="F24" s="137"/>
-      <c r="G24" s="207" t="s">
+      <c r="G24" s="328" t="s">
         <v>66</v>
       </c>
       <c r="H24" s="138"/>
@@ -7859,13 +7922,13 @@
         <v>??</v>
       </c>
       <c r="M24" s="140" t="s">
-        <v>187</v>
-      </c>
-      <c r="O24" s="307" t="str">
+        <v>185</v>
+      </c>
+      <c r="O24" s="301" t="str">
         <f>C30</f>
         <v>Mean Dose (Total lung)</v>
       </c>
-      <c r="P24" s="317" t="str">
+      <c r="P24" s="311" t="str">
         <f>G30</f>
         <v>??</v>
       </c>
@@ -7877,12 +7940,12 @@
       <c r="C25" s="133" t="s">
         <v>43</v>
       </c>
-      <c r="D25" s="265" t="s">
-        <v>176</v>
+      <c r="D25" s="261" t="s">
+        <v>175</v>
       </c>
       <c r="E25" s="90"/>
-      <c r="F25" s="193"/>
-      <c r="G25" s="199" t="s">
+      <c r="F25" s="192"/>
+      <c r="G25" s="327" t="s">
         <v>66</v>
       </c>
       <c r="H25" s="141" t="str">
@@ -7902,13 +7965,13 @@
         <v>??</v>
       </c>
       <c r="M25" s="140" t="s">
-        <v>188</v>
-      </c>
-      <c r="O25" s="307" t="str">
+        <v>186</v>
+      </c>
+      <c r="O25" s="301" t="str">
         <f>C31</f>
         <v>V20 (Total Lung)</v>
       </c>
-      <c r="P25" s="317" t="str">
+      <c r="P25" s="311" t="str">
         <f>G31</f>
         <v>??</v>
       </c>
@@ -7922,10 +7985,10 @@
       <c r="E26" s="96"/>
       <c r="F26" s="97"/>
       <c r="G26" s="114" t="s">
-        <v>177</v>
+        <v>176</v>
       </c>
       <c r="H26" s="104" t="s">
-        <v>184</v>
+        <v>182</v>
       </c>
       <c r="I26" s="143"/>
       <c r="J26" s="143"/>
@@ -7934,11 +7997,11 @@
       </c>
       <c r="L26" s="145"/>
       <c r="M26" s="87"/>
-      <c r="O26" s="307" t="str">
+      <c r="O26" s="301" t="str">
         <f>CONCATENATE(C33," ",F33)</f>
         <v>Aorta  (max point dose)</v>
       </c>
-      <c r="P26" s="317" t="str">
+      <c r="P26" s="311" t="str">
         <f>G33</f>
         <v>??</v>
       </c>
@@ -7952,21 +8015,21 @@
       <c r="E27" s="96"/>
       <c r="F27" s="97"/>
       <c r="G27" s="114" t="s">
-        <v>178</v>
+        <v>177</v>
       </c>
       <c r="H27" s="104"/>
       <c r="I27" s="143"/>
       <c r="J27" s="143"/>
-      <c r="K27" s="205" t="s">
-        <v>175</v>
+      <c r="K27" s="202" t="s">
+        <v>174</v>
       </c>
       <c r="L27" s="145"/>
       <c r="M27" s="87"/>
-      <c r="O27" s="307" t="str">
+      <c r="O27" s="301" t="str">
         <f>CONCATENATE(C33," ",F34)</f>
         <v>Aorta  V60Gy=</v>
       </c>
-      <c r="P27" s="317" t="str">
+      <c r="P27" s="311" t="str">
         <f t="shared" ref="P27:P37" si="0">G34</f>
         <v>??</v>
       </c>
@@ -7988,11 +8051,11 @@
       <c r="K28" s="119"/>
       <c r="L28" s="11"/>
       <c r="M28" s="87"/>
-      <c r="O28" s="307" t="str">
+      <c r="O28" s="301" t="str">
         <f>CONCATENATE(C35," ",F35)</f>
         <v>Artery-Pulmonary (max point dose)</v>
       </c>
-      <c r="P28" s="317" t="str">
+      <c r="P28" s="311" t="str">
         <f t="shared" si="0"/>
         <v>??</v>
       </c>
@@ -8005,7 +8068,7 @@
       <c r="D29" s="96"/>
       <c r="E29" s="96"/>
       <c r="F29" s="97"/>
-      <c r="G29" s="6" t="s">
+      <c r="G29" s="317" t="s">
         <v>66</v>
       </c>
       <c r="H29" s="131"/>
@@ -8016,11 +8079,11 @@
         <v>66</v>
       </c>
       <c r="M29" s="87"/>
-      <c r="O29" s="307" t="str">
+      <c r="O29" s="301" t="str">
         <f>CONCATENATE(C35," ",F36)</f>
         <v>Artery-Pulmonary V60Gy=</v>
       </c>
-      <c r="P29" s="317" t="str">
+      <c r="P29" s="311" t="str">
         <f t="shared" si="0"/>
         <v>??</v>
       </c>
@@ -8033,22 +8096,22 @@
       <c r="D30" s="96"/>
       <c r="E30" s="96"/>
       <c r="F30" s="97"/>
-      <c r="G30" s="7" t="s">
+      <c r="G30" s="329" t="s">
         <v>66</v>
       </c>
       <c r="H30" s="146"/>
       <c r="I30" s="147"/>
       <c r="J30" s="147"/>
       <c r="K30" s="148"/>
-      <c r="L30" s="206" t="s">
+      <c r="L30" s="203" t="s">
         <v>66</v>
       </c>
       <c r="M30" s="87"/>
-      <c r="O30" s="307" t="str">
+      <c r="O30" s="301" t="str">
         <f>CONCATENATE(C37," ",F37)</f>
         <v>Spinal Canal (max point dose)</v>
       </c>
-      <c r="P30" s="317" t="str">
+      <c r="P30" s="311" t="str">
         <f t="shared" si="0"/>
         <v>??</v>
       </c>
@@ -8059,33 +8122,33 @@
         <v>27</v>
       </c>
       <c r="D31" s="90"/>
-      <c r="E31" s="327" t="s">
-        <v>171</v>
-      </c>
-      <c r="F31" s="328"/>
-      <c r="G31" s="200" t="s">
+      <c r="E31" s="347" t="s">
+        <v>170</v>
+      </c>
+      <c r="F31" s="348"/>
+      <c r="G31" s="198" t="s">
         <v>66</v>
       </c>
-      <c r="H31" s="190" t="s">
+      <c r="H31" s="189" t="s">
         <v>37</v>
       </c>
-      <c r="I31" s="188"/>
-      <c r="J31" s="188"/>
-      <c r="K31" s="189" t="s">
+      <c r="I31" s="187"/>
+      <c r="J31" s="187"/>
+      <c r="K31" s="188" t="s">
         <v>68</v>
       </c>
-      <c r="L31" s="196" t="str">
+      <c r="L31" s="195" t="str">
         <f>'Calculations 60Gy_8F'!K34</f>
         <v>??</v>
       </c>
       <c r="M31" s="87" t="s">
         <v>51</v>
       </c>
-      <c r="O31" s="307" t="str">
+      <c r="O31" s="301" t="str">
         <f>CONCATENATE(C38," ",F38)</f>
         <v>Ipsilat. Brach. Plex. (max point dose)</v>
       </c>
-      <c r="P31" s="317" t="str">
+      <c r="P31" s="311" t="str">
         <f t="shared" si="0"/>
         <v>??</v>
       </c>
@@ -8107,28 +8170,28 @@
       <c r="K32" s="128"/>
       <c r="L32" s="100"/>
       <c r="M32" s="87"/>
-      <c r="O32" s="307" t="str">
+      <c r="O32" s="301" t="str">
         <f>CONCATENATE(C38," ",F39)</f>
         <v>Ipsilat. Brach. Plex. V30Gy=</v>
       </c>
-      <c r="P32" s="317" t="str">
+      <c r="P32" s="311" t="str">
         <f t="shared" si="0"/>
         <v>??</v>
       </c>
     </row>
     <row r="33" spans="1:16" x14ac:dyDescent="0.2">
       <c r="B33" s="94"/>
-      <c r="C33" s="209" t="s">
-        <v>130</v>
+      <c r="C33" s="205" t="s">
+        <v>129</v>
       </c>
       <c r="D33" s="107" t="s">
         <v>37</v>
       </c>
       <c r="E33" s="122"/>
-      <c r="F33" s="180" t="s">
+      <c r="F33" s="179" t="s">
         <v>60</v>
       </c>
-      <c r="G33" s="3" t="s">
+      <c r="G33" s="330" t="s">
         <v>66</v>
       </c>
       <c r="H33" s="115"/>
@@ -8137,35 +8200,34 @@
       <c r="K33" s="108">
         <v>6400</v>
       </c>
-      <c r="L33" s="195" t="str">
+      <c r="L33" s="194" t="str">
         <f>IF(G33="??","??",IF(G33&lt;=6400,"Yes","No"))</f>
         <v>??</v>
       </c>
       <c r="M33" s="140" t="s">
-        <v>164</v>
-      </c>
-      <c r="O33" s="307" t="str">
+        <v>163</v>
+      </c>
+      <c r="O33" s="301" t="str">
         <f>CONCATENATE(C40," ",F40)</f>
         <v>Heart (max point dose)</v>
       </c>
-      <c r="P33" s="317" t="str">
+      <c r="P33" s="311" t="str">
         <f t="shared" si="0"/>
         <v>??</v>
       </c>
     </row>
     <row r="34" spans="1:16" ht="14.25" x14ac:dyDescent="0.25">
       <c r="B34" s="94"/>
-      <c r="C34" s="239"/>
-      <c r="D34" s="240" t="s">
+      <c r="C34" s="235"/>
+      <c r="D34" s="236" t="s">
+        <v>148</v>
+      </c>
+      <c r="E34" s="147"/>
+      <c r="F34" s="262" t="s">
         <v>149</v>
       </c>
-      <c r="E34" s="147"/>
-      <c r="F34" s="266" t="s">
-        <v>150</v>
-      </c>
-      <c r="G34" s="4" t="str">
-        <f>IF(G33&lt;=6000,"OK","??")</f>
-        <v>??</v>
+      <c r="G34" s="331" t="s">
+        <v>66</v>
       </c>
       <c r="H34" s="115"/>
       <c r="I34" s="107"/>
@@ -8173,31 +8235,31 @@
       <c r="K34" s="108">
         <v>10</v>
       </c>
-      <c r="L34" s="195" t="str">
+      <c r="L34" s="194" t="str">
         <f>IF(G34="??","??",IF(G34&lt;=10,"Yes",IF(G34="OK","Yes","No")))</f>
         <v>??</v>
       </c>
       <c r="M34" s="87"/>
-      <c r="O34" s="307" t="str">
+      <c r="O34" s="301" t="str">
         <f>CONCATENATE(C40," ",F41)</f>
         <v>Heart V60Gy=</v>
       </c>
-      <c r="P34" s="317" t="str">
+      <c r="P34" s="311" t="str">
         <f t="shared" si="0"/>
         <v>??</v>
       </c>
     </row>
     <row r="35" spans="1:16" x14ac:dyDescent="0.2">
       <c r="B35" s="94"/>
-      <c r="C35" s="209" t="s">
-        <v>167</v>
+      <c r="C35" s="205" t="s">
+        <v>166</v>
       </c>
       <c r="D35" s="107"/>
       <c r="E35" s="122"/>
-      <c r="F35" s="180" t="s">
+      <c r="F35" s="179" t="s">
         <v>60</v>
       </c>
-      <c r="G35" s="3" t="s">
+      <c r="G35" s="330" t="s">
         <v>66</v>
       </c>
       <c r="H35" s="115"/>
@@ -8206,35 +8268,34 @@
       <c r="K35" s="108">
         <v>6400</v>
       </c>
-      <c r="L35" s="195" t="str">
+      <c r="L35" s="194" t="str">
         <f>IF(G35="??","??",IF(G35&lt;=6400,"Yes","No"))</f>
         <v>??</v>
       </c>
       <c r="M35" s="140" t="s">
-        <v>164</v>
-      </c>
-      <c r="O35" s="307" t="str">
+        <v>163</v>
+      </c>
+      <c r="O35" s="301" t="str">
         <f>CONCATENATE(C42," ",F42)</f>
         <v>Esophagus (max point dose)</v>
       </c>
-      <c r="P35" s="317" t="str">
+      <c r="P35" s="311" t="str">
         <f t="shared" si="0"/>
         <v>??</v>
       </c>
     </row>
     <row r="36" spans="1:16" ht="14.25" x14ac:dyDescent="0.25">
       <c r="B36" s="94"/>
-      <c r="C36" s="239"/>
-      <c r="D36" s="240" t="s">
+      <c r="C36" s="235"/>
+      <c r="D36" s="236" t="s">
+        <v>148</v>
+      </c>
+      <c r="E36" s="147"/>
+      <c r="F36" s="262" t="s">
         <v>149</v>
       </c>
-      <c r="E36" s="147"/>
-      <c r="F36" s="266" t="s">
-        <v>150</v>
-      </c>
-      <c r="G36" s="4" t="str">
-        <f>IF(G35&lt;=6000,"OK","??")</f>
-        <v>??</v>
+      <c r="G36" s="331" t="s">
+        <v>66</v>
       </c>
       <c r="H36" s="115"/>
       <c r="I36" s="107"/>
@@ -8242,16 +8303,16 @@
       <c r="K36" s="108">
         <v>10</v>
       </c>
-      <c r="L36" s="195" t="str">
+      <c r="L36" s="194" t="str">
         <f>IF(G36="??","??",IF(G36&lt;=10,"Yes",IF(G36="OK","Yes","No")))</f>
         <v>??</v>
       </c>
       <c r="M36" s="87"/>
-      <c r="O36" s="307" t="str">
+      <c r="O36" s="301" t="str">
         <f>CONCATENATE(C43," ",F43)</f>
         <v>Chestwall (rib) (max point dose)</v>
       </c>
-      <c r="P36" s="317" t="str">
+      <c r="P36" s="311" t="str">
         <f t="shared" si="0"/>
         <v>??</v>
       </c>
@@ -8262,11 +8323,11 @@
         <v>15</v>
       </c>
       <c r="D37" s="96"/>
-      <c r="E37" s="178"/>
+      <c r="E37" s="177"/>
       <c r="F37" s="150" t="s">
         <v>60</v>
       </c>
-      <c r="G37" s="170" t="s">
+      <c r="G37" s="332" t="s">
         <v>66</v>
       </c>
       <c r="H37" s="115"/>
@@ -8275,33 +8336,33 @@
       <c r="K37" s="116">
         <v>3200</v>
       </c>
-      <c r="L37" s="195" t="str">
+      <c r="L37" s="194" t="str">
         <f>IF(G37="??","??",IF(G37&lt;=3200,"Yes","No"))</f>
         <v>??</v>
       </c>
       <c r="M37" s="87" t="s">
         <v>28</v>
       </c>
-      <c r="O37" s="307" t="str">
+      <c r="O37" s="301" t="str">
         <f>CONCATENATE(C43," ",F44)</f>
         <v>Chestwall (rib) V50Gy=</v>
       </c>
-      <c r="P37" s="317" t="str">
+      <c r="P37" s="311" t="str">
         <f t="shared" si="0"/>
         <v>??</v>
       </c>
     </row>
     <row r="38" spans="1:16" x14ac:dyDescent="0.2">
       <c r="B38" s="94"/>
-      <c r="C38" s="209" t="s">
-        <v>185</v>
+      <c r="C38" s="205" t="s">
+        <v>183</v>
       </c>
       <c r="D38" s="107"/>
       <c r="E38" s="122"/>
-      <c r="F38" s="180" t="s">
+      <c r="F38" s="179" t="s">
         <v>60</v>
       </c>
-      <c r="G38" s="170" t="s">
+      <c r="G38" s="169" t="s">
         <v>66</v>
       </c>
       <c r="H38" s="115"/>
@@ -8310,35 +8371,34 @@
       <c r="K38" s="116">
         <v>3800</v>
       </c>
-      <c r="L38" s="195" t="str">
+      <c r="L38" s="194" t="str">
         <f>IF(G38="??","??",IF(G38&lt;=3800,"Yes","No"))</f>
         <v>??</v>
       </c>
       <c r="M38" s="140" t="s">
-        <v>164</v>
-      </c>
-      <c r="O38" s="307" t="str">
+        <v>163</v>
+      </c>
+      <c r="O38" s="301" t="str">
         <f>CONCATENATE(A44," ",F45)</f>
         <v>Trachea (max point dose)</v>
       </c>
-      <c r="P38" s="318">
+      <c r="P38" s="312" t="str">
         <f>A45</f>
-        <v>0</v>
+        <v>??</v>
       </c>
     </row>
     <row r="39" spans="1:16" ht="14.25" x14ac:dyDescent="0.25">
       <c r="B39" s="94"/>
-      <c r="C39" s="179"/>
-      <c r="D39" s="240" t="s">
-        <v>202</v>
+      <c r="C39" s="178"/>
+      <c r="D39" s="236" t="s">
+        <v>200</v>
       </c>
       <c r="E39" s="147"/>
-      <c r="F39" s="267" t="s">
-        <v>119</v>
-      </c>
-      <c r="G39" s="4" t="str">
-        <f>IF(G38&lt;=3000,"OK","??")</f>
-        <v>??</v>
+      <c r="F39" s="263" t="s">
+        <v>118</v>
+      </c>
+      <c r="G39" s="4" t="s">
+        <v>66</v>
       </c>
       <c r="H39" s="115"/>
       <c r="I39" s="107"/>
@@ -8346,18 +8406,18 @@
       <c r="K39" s="116">
         <v>3</v>
       </c>
-      <c r="L39" s="195" t="str">
+      <c r="L39" s="194" t="str">
         <f>IF(G39="??","??",IF(G39&lt;=3,"Yes",IF(G39="OK","Yes","No")))</f>
         <v>??</v>
       </c>
       <c r="M39" s="140"/>
-      <c r="O39" s="307" t="str">
+      <c r="O39" s="301" t="str">
         <f>CONCATENATE(A44," ",F46)</f>
         <v>Trachea V60Gy =</v>
       </c>
-      <c r="P39" s="318">
+      <c r="P39" s="312" t="str">
         <f>A46</f>
-        <v>0</v>
+        <v>??</v>
       </c>
     </row>
     <row r="40" spans="1:16" x14ac:dyDescent="0.2">
@@ -8367,10 +8427,10 @@
       </c>
       <c r="D40" s="107"/>
       <c r="E40" s="122"/>
-      <c r="F40" s="181" t="s">
+      <c r="F40" s="180" t="s">
         <v>60</v>
       </c>
-      <c r="G40" s="170" t="s">
+      <c r="G40" s="332" t="s">
         <v>66</v>
       </c>
       <c r="H40" s="115"/>
@@ -8379,35 +8439,34 @@
       <c r="K40" s="116">
         <v>6400</v>
       </c>
-      <c r="L40" s="195" t="str">
+      <c r="L40" s="194" t="str">
         <f>IF(G40="??","??",IF(G40&lt;=6400,"Yes","No"))</f>
         <v>??</v>
       </c>
       <c r="M40" s="87" t="s">
         <v>28</v>
       </c>
-      <c r="O40" s="307" t="str">
+      <c r="O40" s="301" t="str">
         <f>CONCATENATE(B44," ",F45)</f>
         <v>Bronchus (max point dose)</v>
       </c>
-      <c r="P40" s="318">
+      <c r="P40" s="312" t="str">
         <f>B45</f>
-        <v>0</v>
+        <v>??</v>
       </c>
     </row>
     <row r="41" spans="1:16" ht="14.25" x14ac:dyDescent="0.25">
       <c r="B41" s="94"/>
-      <c r="C41" s="239"/>
-      <c r="D41" s="240" t="s">
+      <c r="C41" s="235"/>
+      <c r="D41" s="236" t="s">
+        <v>148</v>
+      </c>
+      <c r="E41" s="147"/>
+      <c r="F41" s="262" t="s">
         <v>149</v>
       </c>
-      <c r="E41" s="147"/>
-      <c r="F41" s="266" t="s">
-        <v>150</v>
-      </c>
-      <c r="G41" s="4" t="str">
-        <f>IF(G40&lt;=6000,"OK","??")</f>
-        <v>??</v>
+      <c r="G41" s="331" t="s">
+        <v>66</v>
       </c>
       <c r="H41" s="115"/>
       <c r="I41" s="107"/>
@@ -8415,20 +8474,20 @@
       <c r="K41" s="108">
         <v>10</v>
       </c>
-      <c r="L41" s="195" t="str">
+      <c r="L41" s="194" t="str">
         <f>IF(G41="??","??",IF(G41&lt;=10,"Yes",IF(G41="OK","Yes","No")))</f>
         <v>??</v>
       </c>
       <c r="M41" s="140" t="s">
-        <v>164</v>
-      </c>
-      <c r="O41" s="307" t="str">
+        <v>163</v>
+      </c>
+      <c r="O41" s="301" t="str">
         <f>CONCATENATE(B44," ",F48)</f>
         <v>Bronchus V36Gy=</v>
       </c>
-      <c r="P41" s="318">
+      <c r="P41" s="312" t="str">
         <f>B46</f>
-        <v>0</v>
+        <v>??</v>
       </c>
     </row>
     <row r="42" spans="1:16" x14ac:dyDescent="0.2">
@@ -8441,7 +8500,7 @@
       <c r="F42" s="149" t="s">
         <v>60</v>
       </c>
-      <c r="G42" s="170" t="s">
+      <c r="G42" s="332" t="s">
         <v>66</v>
       </c>
       <c r="H42" s="115"/>
@@ -8450,18 +8509,18 @@
       <c r="K42" s="116">
         <v>4000</v>
       </c>
-      <c r="L42" s="195" t="str">
+      <c r="L42" s="194" t="str">
         <f>IF(G42="??","??",IF(G42&lt;=4000,"Yes","No"))</f>
         <v>??</v>
       </c>
       <c r="M42" s="140" t="s">
-        <v>164</v>
-      </c>
-      <c r="O42" s="307" t="str">
+        <v>163</v>
+      </c>
+      <c r="O42" s="301" t="str">
         <f>CONCATENATE(C45," ",C46," ",F45)</f>
         <v>Proximal Trachea &amp; Bronch. Tree:  (max point dose)</v>
       </c>
-      <c r="P42" s="317" t="str">
+      <c r="P42" s="311" t="str">
         <f>G45</f>
         <v>??</v>
       </c>
@@ -8473,10 +8532,10 @@
       </c>
       <c r="D43" s="107"/>
       <c r="E43" s="122"/>
-      <c r="F43" s="181" t="s">
+      <c r="F43" s="180" t="s">
         <v>60</v>
       </c>
-      <c r="G43" s="170" t="s">
+      <c r="G43" s="332" t="s">
         <v>66</v>
       </c>
       <c r="H43" s="115"/>
@@ -8485,40 +8544,39 @@
       <c r="K43" s="116">
         <v>6000</v>
       </c>
-      <c r="L43" s="195" t="str">
+      <c r="L43" s="194" t="str">
         <f>IF(G43="??","??",IF(G43&lt;=6000,"Yes","No"))</f>
         <v>??</v>
       </c>
       <c r="M43" s="140" t="s">
-        <v>164</v>
-      </c>
-      <c r="O43" s="307" t="str">
+        <v>163</v>
+      </c>
+      <c r="O43" s="301" t="str">
         <f>CONCATENATE(C45," ",C46," ",F46)</f>
         <v>Proximal Trachea &amp; Bronch. Tree:  V60Gy =</v>
       </c>
-      <c r="P43" s="317" t="str">
+      <c r="P43" s="311" t="str">
         <f>G46</f>
         <v>??</v>
       </c>
     </row>
     <row r="44" spans="1:16" ht="15" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A44" s="298" t="s">
-        <v>205</v>
-      </c>
-      <c r="B44" s="299" t="s">
-        <v>206</v>
+      <c r="A44" s="294" t="s">
+        <v>203</v>
+      </c>
+      <c r="B44" s="295" t="s">
+        <v>204</v>
       </c>
       <c r="C44" s="94"/>
       <c r="D44" s="143" t="s">
+        <v>164</v>
+      </c>
+      <c r="E44" s="147"/>
+      <c r="F44" s="262" t="s">
         <v>165</v>
       </c>
-      <c r="E44" s="147"/>
-      <c r="F44" s="266" t="s">
-        <v>166</v>
-      </c>
-      <c r="G44" s="4" t="str">
-        <f>IF(G43&lt;=5000,"OK","??")</f>
-        <v>??</v>
+      <c r="G44" s="331" t="s">
+        <v>66</v>
       </c>
       <c r="H44" s="115"/>
       <c r="I44" s="107"/>
@@ -8526,42 +8584,41 @@
       <c r="K44" s="108">
         <v>5</v>
       </c>
-      <c r="L44" s="195" t="str">
+      <c r="L44" s="194" t="str">
         <f>IF(G44="??","??",IF(G44&lt;=5,"Yes",IF(G44="OK","Yes","No")))</f>
         <v>??</v>
       </c>
       <c r="M44" s="140" t="s">
-        <v>164</v>
-      </c>
-      <c r="O44" s="307" t="str">
+        <v>163</v>
+      </c>
+      <c r="O44" s="301" t="str">
         <f>CONCATENATE(C47," ",C48," ",F47)</f>
         <v>Stomach and  Intestines (max point dose)</v>
       </c>
-      <c r="P44" s="317" t="str">
+      <c r="P44" s="311" t="str">
         <f>G47</f>
         <v>??</v>
       </c>
     </row>
     <row r="45" spans="1:16" x14ac:dyDescent="0.2">
-      <c r="A45" s="300">
-        <v>0</v>
-      </c>
-      <c r="B45" s="301">
-        <v>0</v>
+      <c r="A45" s="333" t="s">
+        <v>66</v>
+      </c>
+      <c r="B45" s="334" t="s">
+        <v>66</v>
       </c>
       <c r="C45" s="151" t="s">
         <v>16</v>
       </c>
-      <c r="D45" s="295"/>
+      <c r="D45" s="291"/>
       <c r="E45" s="107"/>
       <c r="F45" s="149" t="s">
         <v>60</v>
       </c>
-      <c r="G45" s="198" t="str">
-        <f>IF(MAX(A45:B45)&gt;0,MAX(A45:B45),"??")</f>
-        <v>??</v>
-      </c>
-      <c r="H45" s="296" t="s">
+      <c r="G45" s="197" t="s">
+        <v>66</v>
+      </c>
+      <c r="H45" s="292" t="s">
         <v>37</v>
       </c>
       <c r="I45" s="122"/>
@@ -8569,44 +8626,43 @@
       <c r="K45" s="16">
         <v>6400</v>
       </c>
-      <c r="L45" s="195" t="str">
+      <c r="L45" s="194" t="str">
         <f>IF(G45="??","??",IF(G45&lt;=6400,"Yes","No"))</f>
         <v>??</v>
       </c>
       <c r="M45" s="87" t="s">
         <v>28</v>
       </c>
-      <c r="O45" s="307" t="str">
+      <c r="O45" s="301" t="str">
         <f>CONCATENATE(C47," ",C48," ",F48)</f>
         <v>Stomach and  Intestines V36Gy=</v>
       </c>
-      <c r="P45" s="317" t="str">
+      <c r="P45" s="311" t="str">
         <f>G48</f>
         <v>??</v>
       </c>
     </row>
     <row r="46" spans="1:16" ht="15" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A46" s="302">
-        <v>0</v>
-      </c>
-      <c r="B46" s="303">
-        <v>0</v>
-      </c>
-      <c r="C46" s="194" t="s">
-        <v>207</v>
+      <c r="A46" s="335" t="s">
+        <v>66</v>
+      </c>
+      <c r="B46" s="336" t="s">
+        <v>66</v>
+      </c>
+      <c r="C46" s="193" t="s">
+        <v>205</v>
       </c>
       <c r="D46" s="143" t="s">
-        <v>208</v>
+        <v>206</v>
       </c>
       <c r="E46" s="96"/>
       <c r="F46" s="98" t="s">
-        <v>174</v>
-      </c>
-      <c r="G46" s="198" t="str">
-        <f>IF(MAX(A46:B46)&gt;0,MAX(A46:B46),"??")</f>
-        <v>??</v>
-      </c>
-      <c r="H46" s="297" t="s">
+        <v>173</v>
+      </c>
+      <c r="G46" s="197" t="s">
+        <v>66</v>
+      </c>
+      <c r="H46" s="293" t="s">
         <v>37</v>
       </c>
       <c r="I46" s="96"/>
@@ -8614,18 +8670,18 @@
       <c r="K46" s="116">
         <v>5</v>
       </c>
-      <c r="L46" s="195" t="str">
+      <c r="L46" s="194" t="str">
         <f>IF(G46="??","??",IF(G46&lt;=5,"Yes",IF(G46="OK","Yes","No")))</f>
         <v>??</v>
       </c>
       <c r="M46" s="140" t="s">
-        <v>164</v>
-      </c>
-      <c r="O46" s="307" t="str">
+        <v>163</v>
+      </c>
+      <c r="O46" s="301" t="str">
         <f>C49</f>
         <v>Dosimetrist:</v>
       </c>
-      <c r="P46" s="311" t="str">
+      <c r="P46" s="305" t="str">
         <f>C50</f>
         <v>??</v>
       </c>
@@ -8633,14 +8689,14 @@
     <row r="47" spans="1:16" x14ac:dyDescent="0.2">
       <c r="B47" s="94"/>
       <c r="C47" s="151" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="D47" s="107"/>
       <c r="E47" s="122"/>
       <c r="F47" s="149" t="s">
         <v>60</v>
       </c>
-      <c r="G47" s="198" t="s">
+      <c r="G47" s="197" t="s">
         <v>66</v>
       </c>
       <c r="H47" s="131"/>
@@ -8649,18 +8705,18 @@
       <c r="K47" s="16">
         <v>4000</v>
       </c>
-      <c r="L47" s="195" t="str">
+      <c r="L47" s="194" t="str">
         <f>IF(G47="??","??",IF(G47&lt;=4000,"Yes","No"))</f>
         <v>??</v>
       </c>
       <c r="M47" s="140" t="s">
-        <v>164</v>
-      </c>
-      <c r="O47" s="307" t="str">
+        <v>163</v>
+      </c>
+      <c r="O47" s="301" t="str">
         <f>G49</f>
         <v>Physicist:</v>
       </c>
-      <c r="P47" s="311" t="str">
+      <c r="P47" s="305" t="str">
         <f>G50</f>
         <v>??</v>
       </c>
@@ -8668,20 +8724,19 @@
     <row r="48" spans="1:16" ht="15" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B48" s="94"/>
       <c r="C48" s="89" t="s">
-        <v>136</v>
-      </c>
-      <c r="D48" s="232" t="s">
-        <v>203</v>
+        <v>135</v>
+      </c>
+      <c r="D48" s="228" t="s">
+        <v>201</v>
       </c>
       <c r="E48" s="90" t="s">
         <v>37</v>
       </c>
-      <c r="F48" s="268" t="s">
-        <v>129</v>
-      </c>
-      <c r="G48" s="197" t="str">
-        <f>IF(G47&lt;=3600,"OK","??")</f>
-        <v>??</v>
+      <c r="F48" s="264" t="s">
+        <v>128</v>
+      </c>
+      <c r="G48" s="196" t="s">
+        <v>66</v>
       </c>
       <c r="H48" s="91"/>
       <c r="I48" s="90"/>
@@ -8689,18 +8744,18 @@
       <c r="K48" s="135">
         <v>1</v>
       </c>
-      <c r="L48" s="196" t="str">
+      <c r="L48" s="195" t="str">
         <f>IF(G48="??","??",IF(G48&lt;=1,"Yes",IF(G48="OK","Yes","No")))</f>
         <v>??</v>
       </c>
       <c r="M48" s="140" t="s">
-        <v>164</v>
-      </c>
-      <c r="O48" s="307" t="str">
+        <v>163</v>
+      </c>
+      <c r="O48" s="301" t="str">
         <f>K49</f>
         <v>Radiation Oncologist:</v>
       </c>
-      <c r="P48" s="311" t="str">
+      <c r="P48" s="305" t="str">
         <f>K50</f>
         <v>??</v>
       </c>
@@ -8726,11 +8781,11 @@
       </c>
       <c r="L49" s="100"/>
       <c r="M49" s="87"/>
-      <c r="O49" s="307" t="str">
+      <c r="O49" s="301" t="str">
         <f>B51</f>
         <v>NOTES:</v>
       </c>
-      <c r="P49" s="311">
+      <c r="P49" s="305">
         <f>C51</f>
         <v>0</v>
       </c>
@@ -8754,11 +8809,11 @@
       </c>
       <c r="L50" s="100"/>
       <c r="M50" s="87"/>
-      <c r="P50" s="319"/>
+      <c r="P50" s="313"/>
     </row>
     <row r="51" spans="2:16" x14ac:dyDescent="0.2">
       <c r="B51" s="101" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="C51" s="21"/>
       <c r="D51" s="21"/>
@@ -8771,28 +8826,28 @@
       <c r="K51" s="22"/>
       <c r="L51" s="17"/>
       <c r="M51" s="87"/>
-      <c r="P51" s="319"/>
+      <c r="P51" s="313"/>
     </row>
     <row r="52" spans="2:16" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
       <c r="B52" s="89"/>
-      <c r="C52" s="269"/>
-      <c r="D52" s="269"/>
-      <c r="E52" s="269"/>
-      <c r="F52" s="270"/>
-      <c r="G52" s="270"/>
-      <c r="H52" s="271" t="s">
+      <c r="C52" s="265"/>
+      <c r="D52" s="265"/>
+      <c r="E52" s="265"/>
+      <c r="F52" s="266"/>
+      <c r="G52" s="266"/>
+      <c r="H52" s="267" t="s">
         <v>37</v>
       </c>
-      <c r="I52" s="269"/>
-      <c r="J52" s="269"/>
-      <c r="K52" s="270"/>
-      <c r="L52" s="272"/>
+      <c r="I52" s="265"/>
+      <c r="J52" s="265"/>
+      <c r="K52" s="266"/>
+      <c r="L52" s="268"/>
       <c r="M52" s="87"/>
-      <c r="P52" s="319"/>
+      <c r="P52" s="313"/>
     </row>
     <row r="53" spans="2:16" x14ac:dyDescent="0.2">
       <c r="B53" s="153" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
       <c r="C53" s="88"/>
       <c r="D53" s="88"/>
@@ -8805,7 +8860,7 @@
       <c r="K53" s="154"/>
       <c r="L53" s="154"/>
       <c r="M53" s="87"/>
-      <c r="P53" s="319"/>
+      <c r="P53" s="313"/>
     </row>
     <row r="54" spans="2:16" x14ac:dyDescent="0.2">
       <c r="B54" s="88"/>
@@ -8820,7 +8875,7 @@
       <c r="K54" s="154"/>
       <c r="L54" s="154"/>
       <c r="M54" s="87"/>
-      <c r="P54" s="319"/>
+      <c r="P54" s="313"/>
     </row>
     <row r="55" spans="2:16" x14ac:dyDescent="0.2">
       <c r="B55" s="88"/>
@@ -8835,7 +8890,7 @@
       <c r="K55" s="154"/>
       <c r="L55" s="154"/>
       <c r="M55" s="87"/>
-      <c r="P55" s="319"/>
+      <c r="P55" s="313"/>
     </row>
     <row r="56" spans="2:16" x14ac:dyDescent="0.2">
       <c r="B56" s="88"/>
@@ -8850,20 +8905,20 @@
       <c r="K56" s="154"/>
       <c r="L56" s="154"/>
       <c r="M56" s="87"/>
-      <c r="P56" s="319"/>
+      <c r="P56" s="313"/>
     </row>
     <row r="57" spans="2:16" x14ac:dyDescent="0.2">
       <c r="M57" s="87"/>
-      <c r="P57" s="319"/>
+      <c r="P57" s="313"/>
     </row>
     <row r="58" spans="2:16" x14ac:dyDescent="0.2">
-      <c r="P58" s="319"/>
+      <c r="P58" s="313"/>
     </row>
     <row r="59" spans="2:16" x14ac:dyDescent="0.2">
-      <c r="P59" s="319"/>
+      <c r="P59" s="313"/>
     </row>
     <row r="60" spans="2:16" x14ac:dyDescent="0.2">
-      <c r="P60" s="319"/>
+      <c r="P60" s="313"/>
     </row>
   </sheetData>
   <sheetProtection formatCells="0" formatColumns="0" formatRows="0"/>
@@ -8925,7 +8980,7 @@
   <dimension ref="A1:P55"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="K23" sqref="K23"/>
+      <selection activeCell="G18" sqref="G18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -8943,28 +8998,28 @@
     <col min="11" max="11" width="13.85546875" style="1" customWidth="1"/>
     <col min="12" max="12" width="15.5703125" style="1" customWidth="1"/>
     <col min="13" max="13" width="14" style="2" customWidth="1"/>
-    <col min="15" max="15" width="52.42578125" style="305" bestFit="1" customWidth="1"/>
-    <col min="16" max="16" width="8.7109375" style="308" customWidth="1"/>
+    <col min="15" max="15" width="52.42578125" style="299" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="8.7109375" style="302" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="2:16" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B1" s="210" t="s">
-        <v>157</v>
-      </c>
-      <c r="C1" s="211"/>
-      <c r="D1" s="210"/>
-      <c r="E1" s="211"/>
-      <c r="F1" s="212"/>
-      <c r="G1" s="212"/>
-      <c r="H1" s="213" t="s">
+      <c r="B1" s="206" t="s">
         <v>156</v>
       </c>
-      <c r="I1" s="210"/>
-      <c r="J1" s="210"/>
-      <c r="K1" s="214"/>
-      <c r="L1" s="214"/>
+      <c r="C1" s="207"/>
+      <c r="D1" s="206"/>
+      <c r="E1" s="207"/>
+      <c r="F1" s="208"/>
+      <c r="G1" s="208"/>
+      <c r="H1" s="209" t="s">
+        <v>155</v>
+      </c>
+      <c r="I1" s="206"/>
+      <c r="J1" s="206"/>
+      <c r="K1" s="210"/>
+      <c r="L1" s="210"/>
       <c r="M1" s="87"/>
-      <c r="O1" s="304"/>
+      <c r="O1" s="298"/>
     </row>
     <row r="2" spans="2:16" x14ac:dyDescent="0.2">
       <c r="B2" s="82"/>
@@ -8973,7 +9028,7 @@
       <c r="E2" s="83"/>
       <c r="F2" s="84"/>
       <c r="G2" s="85" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="H2" s="84"/>
       <c r="I2" s="83"/>
@@ -8981,7 +9036,7 @@
       <c r="K2" s="84"/>
       <c r="L2" s="86"/>
       <c r="M2" s="87"/>
-      <c r="O2" s="304"/>
+      <c r="O2" s="298"/>
     </row>
     <row r="3" spans="2:16" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
       <c r="B3" s="89"/>
@@ -8998,7 +9053,7 @@
       <c r="K3" s="91"/>
       <c r="L3" s="93"/>
       <c r="M3" s="87"/>
-      <c r="O3" s="304"/>
+      <c r="O3" s="298"/>
     </row>
     <row r="4" spans="2:16" x14ac:dyDescent="0.2">
       <c r="B4" s="94"/>
@@ -9010,7 +9065,7 @@
       </c>
       <c r="E4" s="96"/>
       <c r="F4" s="95" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
       <c r="G4" s="97"/>
       <c r="H4" s="163">
@@ -9022,14 +9077,14 @@
         <v>2</v>
       </c>
       <c r="L4" s="17" t="s">
-        <v>73</v>
+        <v>66</v>
       </c>
       <c r="M4" s="87"/>
-      <c r="O4" s="307" t="str">
+      <c r="O4" s="301" t="str">
         <f>C4</f>
         <v>Patient:</v>
       </c>
-      <c r="P4" s="309" t="str">
+      <c r="P4" s="303" t="str">
         <f>D4</f>
         <v>??</v>
       </c>
@@ -9044,7 +9099,7 @@
       </c>
       <c r="E5" s="96"/>
       <c r="F5" s="95" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="G5" s="97"/>
       <c r="H5" s="163">
@@ -9059,11 +9114,11 @@
         <v>66</v>
       </c>
       <c r="M5" s="87"/>
-      <c r="O5" s="307" t="str">
+      <c r="O5" s="301" t="str">
         <f>C5</f>
         <v>CR#:</v>
       </c>
-      <c r="P5" s="310" t="str">
+      <c r="P5" s="304" t="str">
         <f>D5</f>
         <v>??</v>
       </c>
@@ -9083,13 +9138,13 @@
       <c r="K6" s="84"/>
       <c r="L6" s="86"/>
       <c r="M6" s="87"/>
-      <c r="O6" s="307" t="str">
+      <c r="O6" s="301" t="str">
         <f>K4</f>
         <v>Site:</v>
       </c>
-      <c r="P6" s="311" t="str">
+      <c r="P6" s="305" t="str">
         <f>L4</f>
-        <v>LUNG</v>
+        <v>??</v>
       </c>
     </row>
     <row r="7" spans="2:16" x14ac:dyDescent="0.2">
@@ -9100,7 +9155,7 @@
       <c r="D7" s="96"/>
       <c r="E7" s="96"/>
       <c r="F7" s="97"/>
-      <c r="G7" s="177" t="s">
+      <c r="G7" s="176" t="s">
         <v>66</v>
       </c>
       <c r="H7" s="97"/>
@@ -9109,11 +9164,11 @@
       <c r="K7" s="97"/>
       <c r="L7" s="100"/>
       <c r="M7" s="87"/>
-      <c r="O7" s="307" t="str">
+      <c r="O7" s="301" t="str">
         <f>K5</f>
         <v>Plan Name:</v>
       </c>
-      <c r="P7" s="310" t="str">
+      <c r="P7" s="304" t="str">
         <f>L5</f>
         <v>??</v>
       </c>
@@ -9135,11 +9190,11 @@
       <c r="K8" s="97"/>
       <c r="L8" s="100"/>
       <c r="M8" s="87"/>
-      <c r="O8" s="307" t="str">
+      <c r="O8" s="301" t="str">
         <f>F4</f>
         <v>Prescription Dose (cGy):</v>
       </c>
-      <c r="P8" s="309">
+      <c r="P8" s="303">
         <f>H4</f>
         <v>5400</v>
       </c>
@@ -9152,7 +9207,7 @@
       <c r="D9" s="96"/>
       <c r="E9" s="96"/>
       <c r="F9" s="97"/>
-      <c r="G9" s="177" t="s">
+      <c r="G9" s="176" t="s">
         <v>66</v>
       </c>
       <c r="H9" s="97"/>
@@ -9161,11 +9216,11 @@
       <c r="K9" s="97"/>
       <c r="L9" s="100"/>
       <c r="M9" s="87"/>
-      <c r="O9" s="307" t="str">
+      <c r="O9" s="301" t="str">
         <f>F5</f>
         <v>Fractions:</v>
       </c>
-      <c r="P9" s="312">
+      <c r="P9" s="306">
         <f>H5</f>
         <v>3</v>
       </c>
@@ -9187,11 +9242,11 @@
       <c r="K10" s="91"/>
       <c r="L10" s="93"/>
       <c r="M10" s="87"/>
-      <c r="O10" s="307" t="str">
+      <c r="O10" s="301" t="str">
         <f>C7</f>
         <v>GTV Volume (cc)</v>
       </c>
-      <c r="P10" s="313" t="str">
+      <c r="P10" s="307" t="str">
         <f>G7</f>
         <v>??</v>
       </c>
@@ -9202,28 +9257,28 @@
       </c>
       <c r="C11" s="83"/>
       <c r="D11" s="83"/>
-      <c r="E11" s="215" t="s">
+      <c r="E11" s="211" t="s">
         <v>42</v>
       </c>
-      <c r="F11" s="216"/>
-      <c r="G11" s="216"/>
-      <c r="H11" s="216"/>
+      <c r="F11" s="212"/>
+      <c r="G11" s="212"/>
+      <c r="H11" s="212"/>
       <c r="I11" s="117" t="s">
         <v>37</v>
       </c>
       <c r="J11" s="83"/>
-      <c r="K11" s="218" t="s">
+      <c r="K11" s="214" t="s">
         <v>37</v>
       </c>
-      <c r="L11" s="219" t="s">
+      <c r="L11" s="215" t="s">
         <v>37</v>
       </c>
       <c r="M11" s="87"/>
-      <c r="O11" s="307" t="str">
+      <c r="O11" s="301" t="str">
         <f>C8</f>
         <v>ITV Volume (cc):</v>
       </c>
-      <c r="P11" s="313" t="str">
+      <c r="P11" s="307" t="str">
         <f>G8</f>
         <v>??</v>
       </c>
@@ -9235,7 +9290,7 @@
       <c r="E12" s="107"/>
       <c r="F12" s="107"/>
       <c r="G12" s="108" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="H12" s="109" t="s">
         <v>47</v>
@@ -9253,11 +9308,11 @@
       <c r="M12" s="112" t="s">
         <v>44</v>
       </c>
-      <c r="O12" s="307" t="str">
+      <c r="O12" s="301" t="str">
         <f>C9</f>
         <v>PTV Volume (cc)</v>
       </c>
-      <c r="P12" s="314" t="str">
+      <c r="P12" s="308" t="str">
         <f>G9</f>
         <v>??</v>
       </c>
@@ -9279,11 +9334,11 @@
       </c>
       <c r="L13" s="100"/>
       <c r="M13" s="87"/>
-      <c r="O13" s="307" t="str">
+      <c r="O13" s="301" t="str">
         <f>C10</f>
         <v>Total Lung Volume (cc)</v>
       </c>
-      <c r="P13" s="313" t="str">
+      <c r="P13" s="307" t="str">
         <f>G10</f>
         <v>??</v>
       </c>
@@ -9296,14 +9351,14 @@
       <c r="D14" s="107"/>
       <c r="E14" s="107"/>
       <c r="F14" s="115"/>
-      <c r="G14" s="273" t="str">
+      <c r="G14" s="269" t="str">
         <f>IFERROR(H14*$H$4,"??")</f>
         <v>??</v>
       </c>
       <c r="H14" s="168" t="s">
         <v>66</v>
       </c>
-      <c r="I14" s="224" t="b">
+      <c r="I14" s="220" t="b">
         <f>AND((H14&gt;59.99%),(H14&lt;90.01%))</f>
         <v>0</v>
       </c>
@@ -9318,11 +9373,11 @@
       <c r="M14" s="87" t="s">
         <v>46</v>
       </c>
-      <c r="O14" s="307" t="str">
+      <c r="O14" s="301" t="str">
         <f>C14</f>
         <v>Plan Normalization Value (%)</v>
       </c>
-      <c r="P14" s="315" t="str">
+      <c r="P14" s="309" t="str">
         <f>H14</f>
         <v>??</v>
       </c>
@@ -9333,15 +9388,15 @@
       <c r="D15" s="107"/>
       <c r="E15" s="107"/>
       <c r="F15" s="115"/>
-      <c r="G15" s="223"/>
-      <c r="H15" s="223"/>
-      <c r="I15" s="224"/>
+      <c r="G15" s="219"/>
+      <c r="H15" s="219"/>
+      <c r="I15" s="220"/>
       <c r="J15" s="107"/>
       <c r="K15" s="116"/>
       <c r="L15" s="10"/>
       <c r="M15" s="87"/>
-      <c r="O15" s="307"/>
-      <c r="P15" s="315"/>
+      <c r="O15" s="301"/>
+      <c r="P15" s="309"/>
     </row>
     <row r="16" spans="2:16" x14ac:dyDescent="0.2">
       <c r="B16" s="99" t="s">
@@ -9351,18 +9406,18 @@
       <c r="D16" s="83"/>
       <c r="E16" s="83"/>
       <c r="F16" s="118"/>
-      <c r="G16" s="225"/>
+      <c r="G16" s="221"/>
       <c r="H16" s="84"/>
-      <c r="I16" s="226"/>
+      <c r="I16" s="222"/>
       <c r="J16" s="83"/>
       <c r="K16" s="119"/>
       <c r="L16" s="11"/>
       <c r="M16" s="87"/>
-      <c r="O16" s="307" t="str">
+      <c r="O16" s="301" t="str">
         <f>C17</f>
         <v>PTV- Minimum Dose</v>
       </c>
-      <c r="P16" s="313" t="str">
+      <c r="P16" s="307" t="str">
         <f>G17</f>
         <v>??</v>
       </c>
@@ -9378,11 +9433,11 @@
       <c r="G17" s="5" t="s">
         <v>66</v>
       </c>
-      <c r="H17" s="227" t="str">
+      <c r="H17" s="223" t="str">
         <f>IFERROR(G17/$H$4,"??")</f>
         <v>??</v>
       </c>
-      <c r="I17" s="224" t="b">
+      <c r="I17" s="220" t="b">
         <f>AND((H17&gt;59.99%),(H17&lt;90.01%))</f>
         <v>0</v>
       </c>
@@ -9395,11 +9450,11 @@
         <v>No</v>
       </c>
       <c r="M17" s="87"/>
-      <c r="O17" s="307" t="str">
+      <c r="O17" s="301" t="str">
         <f>C18</f>
         <v>PTV - V100(%)</v>
       </c>
-      <c r="P17" s="316" t="str">
+      <c r="P17" s="310" t="str">
         <f>H18</f>
         <v>??</v>
       </c>
@@ -9412,11 +9467,11 @@
       <c r="D18" s="96"/>
       <c r="E18" s="96"/>
       <c r="F18" s="97"/>
-      <c r="G18" s="274">
+      <c r="G18" s="270">
         <f>H4</f>
         <v>5400</v>
       </c>
-      <c r="H18" s="174" t="s">
+      <c r="H18" s="173" t="s">
         <v>66</v>
       </c>
       <c r="I18" s="122"/>
@@ -9429,13 +9484,13 @@
         <v>Yes</v>
       </c>
       <c r="M18" s="88" t="s">
-        <v>151</v>
-      </c>
-      <c r="O18" s="307" t="str">
+        <v>150</v>
+      </c>
+      <c r="O18" s="301" t="str">
         <f>C19</f>
         <v>PTV - V90 (%)</v>
       </c>
-      <c r="P18" s="316" t="str">
+      <c r="P18" s="310" t="str">
         <f>H19</f>
         <v>??</v>
       </c>
@@ -9448,11 +9503,11 @@
       <c r="D19" s="90"/>
       <c r="E19" s="90"/>
       <c r="F19" s="91"/>
-      <c r="G19" s="275">
+      <c r="G19" s="271">
         <f>0.9*H4</f>
         <v>4860</v>
       </c>
-      <c r="H19" s="175" t="s">
+      <c r="H19" s="174" t="s">
         <v>66</v>
       </c>
       <c r="I19" s="126"/>
@@ -9465,13 +9520,13 @@
         <v>Yes</v>
       </c>
       <c r="M19" s="88" t="s">
-        <v>152</v>
-      </c>
-      <c r="O19" s="307" t="str">
+        <v>151</v>
+      </c>
+      <c r="O19" s="301" t="str">
         <f>CONCATENATE(C21," ",D21)</f>
         <v>Location V105% - PTV (cc) =</v>
       </c>
-      <c r="P19" s="316" t="str">
+      <c r="P19" s="310" t="str">
         <f>G21</f>
         <v>??</v>
       </c>
@@ -9485,17 +9540,17 @@
       <c r="E20" s="96"/>
       <c r="F20" s="97"/>
       <c r="G20" s="128"/>
-      <c r="H20" s="276"/>
+      <c r="H20" s="272"/>
       <c r="I20" s="96"/>
       <c r="J20" s="96"/>
       <c r="K20" s="129"/>
       <c r="L20" s="14"/>
       <c r="M20" s="87"/>
-      <c r="O20" s="307" t="str">
+      <c r="O20" s="301" t="str">
         <f>CONCATENATE(C22," ",D22)</f>
         <v>Volume V100% (cc) =</v>
       </c>
-      <c r="P20" s="316" t="str">
+      <c r="P20" s="310" t="str">
         <f>G22</f>
         <v>??</v>
       </c>
@@ -9508,14 +9563,14 @@
         <v>40</v>
       </c>
       <c r="D21" s="122" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="E21" s="122"/>
       <c r="F21" s="131"/>
       <c r="G21" s="15" t="s">
         <v>66</v>
       </c>
-      <c r="H21" s="172" t="str">
+      <c r="H21" s="171" t="str">
         <f>IFERROR(G21/G9,"??")</f>
         <v>??</v>
       </c>
@@ -9531,11 +9586,11 @@
       <c r="M21" s="87" t="s">
         <v>48</v>
       </c>
-      <c r="O21" s="307" t="str">
+      <c r="O21" s="301" t="str">
         <f>CONCATENATE(C24," ",D24)</f>
         <v>Location  D³2cm (%) =</v>
       </c>
-      <c r="P21" s="317" t="str">
+      <c r="P21" s="311" t="str">
         <f>G24</f>
         <v>??</v>
       </c>
@@ -9548,14 +9603,14 @@
         <v>43</v>
       </c>
       <c r="D22" s="90" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="E22" s="90"/>
       <c r="F22" s="91"/>
       <c r="G22" s="9" t="s">
         <v>66</v>
       </c>
-      <c r="H22" s="173" t="str">
+      <c r="H22" s="172" t="str">
         <f>IFERROR('Calculations 54Gy 3F'!J31,"??")</f>
         <v>??</v>
       </c>
@@ -9573,11 +9628,11 @@
       <c r="M22" s="87" t="s">
         <v>52</v>
       </c>
-      <c r="O22" s="307" t="str">
+      <c r="O22" s="301" t="str">
         <f>C25</f>
         <v>Volume(R50)</v>
       </c>
-      <c r="P22" s="317" t="str">
+      <c r="P22" s="311" t="str">
         <f>G25</f>
         <v>??</v>
       </c>
@@ -9591,17 +9646,17 @@
       <c r="E23" s="83"/>
       <c r="F23" s="84"/>
       <c r="G23" s="119"/>
-      <c r="H23" s="277"/>
+      <c r="H23" s="273"/>
       <c r="I23" s="83"/>
       <c r="J23" s="83"/>
       <c r="K23" s="119"/>
       <c r="L23" s="11"/>
       <c r="M23" s="87"/>
-      <c r="O23" s="307" t="str">
+      <c r="O23" s="301" t="str">
         <f>C29</f>
         <v>Mean Dose (contralateral lung)</v>
       </c>
-      <c r="P23" s="317" t="str">
+      <c r="P23" s="311" t="str">
         <f>G29</f>
         <v>??</v>
       </c>
@@ -9611,17 +9666,17 @@
         <v>37</v>
       </c>
       <c r="C24" s="130" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="D24" s="136" t="s">
         <v>49</v>
       </c>
       <c r="E24" s="122"/>
       <c r="F24" s="131"/>
-      <c r="G24" s="323" t="s">
+      <c r="G24" s="317" t="s">
         <v>66</v>
       </c>
-      <c r="H24" s="322" t="str">
+      <c r="H24" s="316" t="str">
         <f>IFERROR(G24/H4,"??")</f>
         <v>??</v>
       </c>
@@ -9638,11 +9693,11 @@
       <c r="M24" s="140" t="s">
         <v>54</v>
       </c>
-      <c r="O24" s="307" t="str">
+      <c r="O24" s="301" t="str">
         <f>C30</f>
         <v>Mean Dose (Total lung)</v>
       </c>
-      <c r="P24" s="317" t="str">
+      <c r="P24" s="311" t="str">
         <f>G30</f>
         <v>??</v>
       </c>
@@ -9652,14 +9707,14 @@
         <v>37</v>
       </c>
       <c r="C25" s="133" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="D25" s="90"/>
       <c r="E25" s="90"/>
-      <c r="F25" s="187" t="s">
-        <v>160</v>
-      </c>
-      <c r="G25" s="324" t="s">
+      <c r="F25" s="186" t="s">
+        <v>159</v>
+      </c>
+      <c r="G25" s="318" t="s">
         <v>66</v>
       </c>
       <c r="H25" s="141" t="str">
@@ -9681,11 +9736,11 @@
       <c r="M25" s="87" t="s">
         <v>53</v>
       </c>
-      <c r="O25" s="307" t="str">
+      <c r="O25" s="301" t="str">
         <f>C31</f>
         <v>V20 (Total Lung) in %</v>
       </c>
-      <c r="P25" s="317" t="str">
+      <c r="P25" s="311" t="str">
         <f>G31</f>
         <v>??</v>
       </c>
@@ -9711,11 +9766,11 @@
       </c>
       <c r="L26" s="145"/>
       <c r="M26" s="87"/>
-      <c r="O26" s="307" t="str">
+      <c r="O26" s="301" t="str">
         <f>CONCATENATE(C32," ",F32)</f>
         <v>Lung-Basic Function V11.6Gy=</v>
       </c>
-      <c r="P26" s="317" t="str">
+      <c r="P26" s="311" t="str">
         <f>G32</f>
         <v>??</v>
       </c>
@@ -9731,19 +9786,19 @@
       <c r="G27" s="114" t="s">
         <v>21</v>
       </c>
-      <c r="H27" s="276"/>
+      <c r="H27" s="272"/>
       <c r="I27" s="143"/>
       <c r="J27" s="143"/>
-      <c r="K27" s="278" t="s">
+      <c r="K27" s="274" t="s">
         <v>59</v>
       </c>
       <c r="L27" s="145"/>
       <c r="M27" s="87"/>
-      <c r="O27" s="307" t="str">
+      <c r="O27" s="301" t="str">
         <f>CONCATENATE(C33," ",F33)</f>
         <v>Lung-Pneumonitis V12.4Gy=</v>
       </c>
-      <c r="P27" s="317" t="str">
+      <c r="P27" s="311" t="str">
         <f>G33</f>
         <v>??</v>
       </c>
@@ -9759,17 +9814,17 @@
       <c r="E28" s="83"/>
       <c r="F28" s="84"/>
       <c r="G28" s="119"/>
-      <c r="H28" s="277"/>
+      <c r="H28" s="273"/>
       <c r="I28" s="83"/>
       <c r="J28" s="83"/>
       <c r="K28" s="119"/>
       <c r="L28" s="11"/>
       <c r="M28" s="87"/>
-      <c r="O28" s="307" t="str">
+      <c r="O28" s="301" t="str">
         <f>CONCATENATE(C35," ",F35)</f>
         <v>Aorta  (max point dose)</v>
       </c>
-      <c r="P28" s="317" t="str">
+      <c r="P28" s="311" t="str">
         <f>G35</f>
         <v>??</v>
       </c>
@@ -9785,17 +9840,17 @@
       <c r="G29" s="6" t="s">
         <v>66</v>
       </c>
-      <c r="H29" s="184"/>
+      <c r="H29" s="183"/>
       <c r="I29" s="122"/>
       <c r="J29" s="122"/>
       <c r="K29" s="16"/>
-      <c r="L29" s="279"/>
+      <c r="L29" s="275"/>
       <c r="M29" s="87"/>
-      <c r="O29" s="307" t="str">
+      <c r="O29" s="301" t="str">
         <f>CONCATENATE(C36," ",F35)</f>
         <v>Artery-Pulmnory (max point dose)</v>
       </c>
-      <c r="P29" s="317" t="str">
+      <c r="P29" s="311" t="str">
         <f t="shared" ref="P29:P38" si="0">G36</f>
         <v>??</v>
       </c>
@@ -9811,17 +9866,17 @@
       <c r="G30" s="7" t="s">
         <v>66</v>
       </c>
-      <c r="H30" s="280"/>
+      <c r="H30" s="276"/>
       <c r="I30" s="147"/>
       <c r="J30" s="147"/>
       <c r="K30" s="148"/>
-      <c r="L30" s="281"/>
+      <c r="L30" s="277"/>
       <c r="M30" s="87"/>
-      <c r="O30" s="307" t="str">
+      <c r="O30" s="301" t="str">
         <f>CONCATENATE(C37," ",F37)</f>
         <v>Spinal Canal (max point dose)</v>
       </c>
-      <c r="P30" s="317" t="str">
+      <c r="P30" s="311" t="str">
         <f t="shared" si="0"/>
         <v>??</v>
       </c>
@@ -9829,22 +9884,22 @@
     <row r="31" spans="2:16" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
       <c r="B31" s="94"/>
       <c r="C31" s="94" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="D31" s="96"/>
       <c r="E31" s="96"/>
-      <c r="F31" s="187" t="s">
-        <v>147</v>
-      </c>
-      <c r="G31" s="186" t="s">
+      <c r="F31" s="186" t="s">
+        <v>146</v>
+      </c>
+      <c r="G31" s="185" t="s">
         <v>66</v>
       </c>
-      <c r="H31" s="191" t="s">
+      <c r="H31" s="190" t="s">
         <v>37</v>
       </c>
       <c r="I31" s="122"/>
       <c r="J31" s="122"/>
-      <c r="K31" s="282" t="str">
+      <c r="K31" s="278" t="str">
         <f ca="1">IFERROR('Calculations 54Gy 3F'!O27,"??")</f>
         <v>??</v>
       </c>
@@ -9855,11 +9910,11 @@
       <c r="M31" s="87" t="s">
         <v>51</v>
       </c>
-      <c r="O31" s="307" t="str">
+      <c r="O31" s="301" t="str">
         <f>CONCATENATE(C38," ",F37)</f>
         <v>Spinal Canal-PRV 5mm (max point dose)</v>
       </c>
-      <c r="P31" s="317" t="str">
+      <c r="P31" s="311" t="str">
         <f t="shared" si="0"/>
         <v>??</v>
       </c>
@@ -9871,32 +9926,32 @@
       </c>
       <c r="D32" s="96"/>
       <c r="E32" s="96"/>
-      <c r="F32" s="276" t="s">
-        <v>131</v>
+      <c r="F32" s="272" t="s">
+        <v>130</v>
       </c>
       <c r="G32" s="6" t="s">
         <v>66</v>
       </c>
-      <c r="H32" s="235" t="s">
-        <v>148</v>
+      <c r="H32" s="231" t="s">
+        <v>147</v>
       </c>
       <c r="I32" s="122"/>
       <c r="J32" s="122"/>
-      <c r="K32" s="282">
+      <c r="K32" s="278">
         <v>1500</v>
       </c>
-      <c r="L32" s="195" t="str">
+      <c r="L32" s="194" t="str">
         <f>IF(G32&lt;=K32,"Yes","No")</f>
         <v>No</v>
       </c>
       <c r="M32" s="140" t="s">
         <v>71</v>
       </c>
-      <c r="O32" s="307" t="str">
+      <c r="O32" s="301" t="str">
         <f>CONCATENATE(C39," ",F39)</f>
         <v>Ipsilat Brach.Plex (max point dose)</v>
       </c>
-      <c r="P32" s="317" t="str">
+      <c r="P32" s="311" t="str">
         <f t="shared" si="0"/>
         <v>??</v>
       </c>
@@ -9909,13 +9964,13 @@
       <c r="D33" s="96"/>
       <c r="E33" s="96"/>
       <c r="F33" s="97" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="G33" s="8" t="s">
         <v>66</v>
       </c>
-      <c r="H33" s="235" t="s">
-        <v>146</v>
+      <c r="H33" s="231" t="s">
+        <v>145</v>
       </c>
       <c r="I33" s="96"/>
       <c r="J33" s="96"/>
@@ -9929,11 +9984,11 @@
       <c r="M33" s="140" t="s">
         <v>72</v>
       </c>
-      <c r="O33" s="307" t="str">
+      <c r="O33" s="301" t="str">
         <f>CONCATENATE(C40," ",F40)</f>
         <v>Skin V30Gy=</v>
       </c>
-      <c r="P33" s="317" t="str">
+      <c r="P33" s="311" t="str">
         <f t="shared" si="0"/>
         <v>??</v>
       </c>
@@ -9955,19 +10010,19 @@
       <c r="K34" s="119"/>
       <c r="L34" s="86"/>
       <c r="M34" s="87"/>
-      <c r="O34" s="307" t="str">
+      <c r="O34" s="301" t="str">
         <f>CONCATENATE(C41," ",F41)</f>
         <v>Heart (max point dose)</v>
       </c>
-      <c r="P34" s="317" t="str">
+      <c r="P34" s="311" t="str">
         <f t="shared" si="0"/>
         <v>??</v>
       </c>
     </row>
     <row r="35" spans="1:16" x14ac:dyDescent="0.2">
       <c r="B35" s="94"/>
-      <c r="C35" s="209" t="s">
-        <v>130</v>
+      <c r="C35" s="205" t="s">
+        <v>129</v>
       </c>
       <c r="D35" s="107" t="s">
         <v>37</v>
@@ -9990,18 +10045,18 @@
         <v>No</v>
       </c>
       <c r="M35" s="87"/>
-      <c r="O35" s="307" t="str">
+      <c r="O35" s="301" t="str">
         <f>CONCATENATE(C42," ",F42)</f>
         <v>Esophagus (max point dose)</v>
       </c>
-      <c r="P35" s="317" t="str">
+      <c r="P35" s="311" t="str">
         <f t="shared" si="0"/>
         <v>??</v>
       </c>
     </row>
     <row r="36" spans="1:16" x14ac:dyDescent="0.2">
       <c r="B36" s="94"/>
-      <c r="C36" s="194" t="s">
+      <c r="C36" s="193" t="s">
         <v>33</v>
       </c>
       <c r="D36" s="96"/>
@@ -10021,11 +10076,11 @@
         <v>No</v>
       </c>
       <c r="M36" s="87"/>
-      <c r="O36" s="307" t="str">
+      <c r="O36" s="301" t="str">
         <f>CONCATENATE(C43," ",F43)</f>
         <v>*Chestwall (rib) (max point dose)</v>
       </c>
-      <c r="P36" s="317" t="str">
+      <c r="P36" s="311" t="str">
         <f t="shared" si="0"/>
         <v>??</v>
       </c>
@@ -10043,7 +10098,7 @@
       <c r="G37" s="5" t="s">
         <v>66</v>
       </c>
-      <c r="H37" s="283" t="s">
+      <c r="H37" s="279" t="s">
         <v>37</v>
       </c>
       <c r="I37" s="107"/>
@@ -10058,18 +10113,18 @@
       <c r="M37" s="87" t="s">
         <v>61</v>
       </c>
-      <c r="O37" s="307" t="str">
+      <c r="O37" s="301" t="str">
         <f>CONCATENATE(C43," ",F44)</f>
         <v>*Chestwall (rib) V28.2Gy=</v>
       </c>
-      <c r="P37" s="317" t="str">
+      <c r="P37" s="311" t="str">
         <f t="shared" si="0"/>
         <v>??</v>
       </c>
     </row>
     <row r="38" spans="1:16" x14ac:dyDescent="0.2">
       <c r="B38" s="94"/>
-      <c r="C38" s="247" t="s">
+      <c r="C38" s="243" t="s">
         <v>35</v>
       </c>
       <c r="D38" s="122"/>
@@ -10089,11 +10144,11 @@
         <v>No</v>
       </c>
       <c r="M38" s="87"/>
-      <c r="O38" s="307" t="str">
+      <c r="O38" s="301" t="str">
         <f>CONCATENATE(C43," ",F45)</f>
         <v>*Chestwall (rib) V30Gy=</v>
       </c>
-      <c r="P38" s="317" t="str">
+      <c r="P38" s="311" t="str">
         <f t="shared" si="0"/>
         <v>??</v>
       </c>
@@ -10105,7 +10160,7 @@
       </c>
       <c r="D39" s="107"/>
       <c r="E39" s="107"/>
-      <c r="F39" s="284" t="s">
+      <c r="F39" s="280" t="s">
         <v>60</v>
       </c>
       <c r="G39" s="5" t="s">
@@ -10124,50 +10179,50 @@
       <c r="M39" s="87" t="s">
         <v>28</v>
       </c>
-      <c r="O39" s="307" t="str">
+      <c r="O39" s="301" t="str">
         <f>A46</f>
         <v>Trachea</v>
       </c>
-      <c r="P39" s="318">
+      <c r="P39" s="312">
         <f>A47</f>
         <v>0</v>
       </c>
     </row>
     <row r="40" spans="1:16" ht="15.75" x14ac:dyDescent="0.3">
       <c r="B40" s="94"/>
-      <c r="C40" s="285" t="s">
+      <c r="C40" s="281" t="s">
         <v>14</v>
       </c>
-      <c r="D40" s="286" t="s">
+      <c r="D40" s="282" t="s">
+        <v>153</v>
+      </c>
+      <c r="E40" s="283"/>
+      <c r="F40" s="284" t="s">
         <v>154</v>
       </c>
-      <c r="E40" s="287"/>
-      <c r="F40" s="288" t="s">
-        <v>155</v>
-      </c>
-      <c r="G40" s="182" t="s">
+      <c r="G40" s="181" t="s">
         <v>66</v>
       </c>
-      <c r="H40" s="289" t="s">
+      <c r="H40" s="285" t="s">
         <v>37</v>
       </c>
-      <c r="I40" s="290"/>
-      <c r="J40" s="290"/>
-      <c r="K40" s="291">
+      <c r="I40" s="286"/>
+      <c r="J40" s="286"/>
+      <c r="K40" s="287">
         <v>10</v>
       </c>
-      <c r="L40" s="292" t="str">
+      <c r="L40" s="288" t="str">
         <f t="shared" si="1"/>
         <v>No</v>
       </c>
       <c r="M40" s="87" t="s">
         <v>28</v>
       </c>
-      <c r="O40" s="307" t="str">
+      <c r="O40" s="301" t="str">
         <f>B46</f>
         <v>Bronchus</v>
       </c>
-      <c r="P40" s="318">
+      <c r="P40" s="312">
         <f>B47</f>
         <v>0</v>
       </c>
@@ -10185,7 +10240,7 @@
       <c r="G41" s="5" t="s">
         <v>66</v>
       </c>
-      <c r="H41" s="283" t="s">
+      <c r="H41" s="279" t="s">
         <v>37</v>
       </c>
       <c r="I41" s="107"/>
@@ -10200,11 +10255,11 @@
       <c r="M41" s="87" t="s">
         <v>63</v>
       </c>
-      <c r="O41" s="307" t="str">
+      <c r="O41" s="301" t="str">
         <f>CONCATENATE(C46," ",C47," ",F46)</f>
         <v>Proximal Trachea and Bronchial Tree (max point dose)</v>
       </c>
-      <c r="P41" s="317" t="str">
+      <c r="P41" s="311" t="str">
         <f>G46</f>
         <v>??</v>
       </c>
@@ -10235,11 +10290,11 @@
       <c r="M42" s="87" t="s">
         <v>28</v>
       </c>
-      <c r="O42" s="307" t="str">
+      <c r="O42" s="301" t="str">
         <f>C48</f>
         <v>Dosimetrist:</v>
       </c>
-      <c r="P42" s="311" t="str">
+      <c r="P42" s="305" t="str">
         <f>C49</f>
         <v>??</v>
       </c>
@@ -10247,7 +10302,7 @@
     <row r="43" spans="1:16" x14ac:dyDescent="0.2">
       <c r="B43" s="94"/>
       <c r="C43" s="151" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="D43" s="107"/>
       <c r="E43" s="107"/>
@@ -10270,11 +10325,11 @@
       <c r="M43" s="87" t="s">
         <v>61</v>
       </c>
-      <c r="O43" s="307" t="str">
+      <c r="O43" s="301" t="str">
         <f>G48</f>
         <v>Physicist:</v>
       </c>
-      <c r="P43" s="311" t="str">
+      <c r="P43" s="305" t="str">
         <f>G49</f>
         <v>??</v>
       </c>
@@ -10283,11 +10338,11 @@
       <c r="B44" s="94"/>
       <c r="C44" s="94"/>
       <c r="D44" s="143" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c r="E44" s="96"/>
       <c r="F44" s="98" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="G44" s="4" t="str">
         <f>IF(G43&lt;=2820,"OK","??")</f>
@@ -10306,11 +10361,11 @@
       <c r="M44" s="87" t="s">
         <v>63</v>
       </c>
-      <c r="O44" s="307" t="str">
+      <c r="O44" s="301" t="str">
         <f>J48</f>
         <v>Radiation Oncologist:</v>
       </c>
-      <c r="P44" s="311" t="str">
+      <c r="P44" s="305" t="str">
         <f>K49</f>
         <v>??</v>
       </c>
@@ -10318,14 +10373,14 @@
     <row r="45" spans="1:16" ht="15" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B45" s="94"/>
       <c r="C45" s="94"/>
-      <c r="D45" s="293" t="s">
-        <v>127</v>
-      </c>
-      <c r="E45" s="252" t="s">
+      <c r="D45" s="289" t="s">
+        <v>126</v>
+      </c>
+      <c r="E45" s="248" t="s">
         <v>37</v>
       </c>
-      <c r="F45" s="294" t="s">
-        <v>119</v>
+      <c r="F45" s="290" t="s">
+        <v>118</v>
       </c>
       <c r="G45" s="7" t="str">
         <f>IF(G43&lt;=3000,"OK","??")</f>
@@ -10342,21 +10397,21 @@
         <v>No</v>
       </c>
       <c r="M45" s="87"/>
-      <c r="O45" s="307" t="str">
+      <c r="O45" s="301" t="str">
         <f>B50</f>
         <v>NOTES:</v>
       </c>
-      <c r="P45" s="311">
+      <c r="P45" s="305">
         <f>C50</f>
         <v>0</v>
       </c>
     </row>
     <row r="46" spans="1:16" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A46" s="298" t="s">
-        <v>205</v>
-      </c>
-      <c r="B46" s="299" t="s">
-        <v>206</v>
+      <c r="A46" s="294" t="s">
+        <v>203</v>
+      </c>
+      <c r="B46" s="295" t="s">
+        <v>204</v>
       </c>
       <c r="C46" s="151" t="s">
         <v>16</v>
@@ -10385,17 +10440,17 @@
       <c r="M46" s="87" t="s">
         <v>63</v>
       </c>
-      <c r="O46" s="304"/>
+      <c r="O46" s="298"/>
     </row>
     <row r="47" spans="1:16" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A47" s="302">
+      <c r="A47" s="296">
         <v>0</v>
       </c>
-      <c r="B47" s="303">
+      <c r="B47" s="297">
         <v>0</v>
       </c>
       <c r="C47" s="94" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="D47" s="96"/>
       <c r="E47" s="96"/>
@@ -10409,7 +10464,7 @@
       <c r="K47" s="128"/>
       <c r="L47" s="14"/>
       <c r="M47" s="87"/>
-      <c r="O47" s="304"/>
+      <c r="O47" s="298"/>
     </row>
     <row r="48" spans="1:16" x14ac:dyDescent="0.2">
       <c r="B48" s="94"/>
@@ -10430,7 +10485,7 @@
       <c r="K48" s="84"/>
       <c r="L48" s="86"/>
       <c r="M48" s="87"/>
-      <c r="O48" s="304"/>
+      <c r="O48" s="298"/>
     </row>
     <row r="49" spans="2:15" x14ac:dyDescent="0.2">
       <c r="B49" s="94"/>
@@ -10451,11 +10506,11 @@
       </c>
       <c r="L49" s="100"/>
       <c r="M49" s="87"/>
-      <c r="O49" s="304"/>
+      <c r="O49" s="298"/>
     </row>
     <row r="50" spans="2:15" x14ac:dyDescent="0.2">
       <c r="B50" s="101" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="C50" s="21"/>
       <c r="D50" s="21"/>
@@ -10468,30 +10523,30 @@
       <c r="K50" s="22"/>
       <c r="L50" s="17"/>
       <c r="M50" s="87"/>
-      <c r="O50" s="304"/>
+      <c r="O50" s="298"/>
     </row>
     <row r="51" spans="2:15" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
       <c r="B51" s="89"/>
       <c r="C51" s="90"/>
       <c r="D51" s="90"/>
       <c r="E51" s="90"/>
-      <c r="F51" s="260" t="s">
-        <v>126</v>
-      </c>
-      <c r="G51" s="261" t="s">
-        <v>124</v>
-      </c>
-      <c r="H51" s="260"/>
-      <c r="I51" s="261"/>
-      <c r="J51" s="261"/>
-      <c r="K51" s="260"/>
-      <c r="L51" s="262"/>
+      <c r="F51" s="256" t="s">
+        <v>125</v>
+      </c>
+      <c r="G51" s="257" t="s">
+        <v>123</v>
+      </c>
+      <c r="H51" s="256"/>
+      <c r="I51" s="257"/>
+      <c r="J51" s="257"/>
+      <c r="K51" s="256"/>
+      <c r="L51" s="258"/>
       <c r="M51" s="87"/>
-      <c r="O51" s="304"/>
+      <c r="O51" s="298"/>
     </row>
     <row r="52" spans="2:15" x14ac:dyDescent="0.2">
       <c r="B52" s="153" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
       <c r="C52" s="88"/>
       <c r="D52" s="88"/>
@@ -10504,7 +10559,7 @@
       <c r="K52" s="154"/>
       <c r="L52" s="154"/>
       <c r="M52" s="87"/>
-      <c r="O52" s="304"/>
+      <c r="O52" s="298"/>
     </row>
     <row r="53" spans="2:15" x14ac:dyDescent="0.2">
       <c r="B53" s="88"/>
@@ -10519,12 +10574,12 @@
       <c r="K53" s="154"/>
       <c r="L53" s="154"/>
       <c r="M53" s="87"/>
-      <c r="O53" s="304"/>
+      <c r="O53" s="298"/>
     </row>
     <row r="55" spans="2:15" x14ac:dyDescent="0.2">
       <c r="F55" s="166"/>
       <c r="G55" s="164"/>
-      <c r="H55" s="192"/>
+      <c r="H55" s="191"/>
       <c r="I55" s="165"/>
       <c r="J55" s="165"/>
       <c r="K55" s="164"/>
@@ -10572,7 +10627,7 @@
       <c r="G1" s="25"/>
       <c r="H1" s="25"/>
       <c r="I1" s="26" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="J1" s="25"/>
       <c r="K1" s="25"/>
@@ -10587,7 +10642,7 @@
       <c r="C2" s="28"/>
       <c r="D2" s="29"/>
       <c r="E2" s="30" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="F2" s="29"/>
       <c r="G2" s="29"/>
@@ -10613,12 +10668,12 @@
       <c r="J3" s="25"/>
       <c r="K3" s="25"/>
       <c r="L3" s="24" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="M3" s="25"/>
       <c r="N3" s="27"/>
       <c r="O3" s="25" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="P3" s="25"/>
       <c r="Q3" s="27"/>
@@ -10628,22 +10683,22 @@
       <c r="D4" s="33"/>
       <c r="E4" s="29"/>
       <c r="F4" s="34" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="G4" s="29"/>
       <c r="H4" s="31"/>
       <c r="I4" s="29" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="J4" s="29"/>
       <c r="K4" s="29"/>
       <c r="L4" s="28" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="M4" s="29"/>
       <c r="N4" s="31"/>
       <c r="O4" s="29" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="P4" s="29"/>
       <c r="Q4" s="31"/>
@@ -10653,17 +10708,17 @@
       <c r="D5" s="29"/>
       <c r="E5" s="29"/>
       <c r="F5" s="34" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="G5" s="29"/>
       <c r="H5" s="31"/>
       <c r="I5" s="35" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="J5" s="29"/>
       <c r="K5" s="29"/>
       <c r="L5" s="28" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="M5" s="29"/>
       <c r="N5" s="31"/>
@@ -10674,11 +10729,11 @@
     <row r="6" spans="3:17" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
       <c r="C6" s="28"/>
       <c r="D6" s="36" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="E6" s="29"/>
       <c r="F6" s="34" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="G6" s="29"/>
       <c r="H6" s="31"/>
@@ -10695,26 +10750,26 @@
     <row r="7" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C7" s="28"/>
       <c r="D7" s="36" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="E7" s="29"/>
       <c r="F7" s="37" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="G7" s="25"/>
       <c r="H7" s="27"/>
       <c r="I7" s="25"/>
       <c r="J7" s="25" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="K7" s="25"/>
       <c r="L7" s="38" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="M7" s="25"/>
       <c r="N7" s="27"/>
       <c r="O7" s="39" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="P7" s="25"/>
       <c r="Q7" s="27"/>
@@ -10722,35 +10777,35 @@
     <row r="8" spans="3:17" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
       <c r="C8" s="40"/>
       <c r="D8" s="41" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="E8" s="41"/>
       <c r="F8" s="42" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="G8" s="41" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="H8" s="43"/>
       <c r="I8" s="41" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="J8" s="41" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="K8" s="41"/>
       <c r="L8" s="42" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="M8" s="41" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="N8" s="43"/>
       <c r="O8" s="41" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="P8" s="44" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="Q8" s="43"/>
     </row>
@@ -11158,7 +11213,7 @@
     </row>
     <row r="21" spans="3:17" ht="15" x14ac:dyDescent="0.25">
       <c r="C21" s="28" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="D21" s="45"/>
       <c r="E21" s="36"/>
@@ -11177,7 +11232,7 @@
     </row>
     <row r="22" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C22" s="28" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="D22" s="36"/>
       <c r="E22" s="36"/>
@@ -11215,7 +11270,7 @@
     </row>
     <row r="24" spans="3:17" ht="18.75" x14ac:dyDescent="0.3">
       <c r="C24" s="56" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="D24" s="57"/>
       <c r="E24" s="57"/>
@@ -11239,22 +11294,22 @@
       <c r="D25" s="61"/>
       <c r="E25" s="61"/>
       <c r="F25" s="62" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="G25" s="63"/>
       <c r="H25" s="64"/>
       <c r="I25" s="62" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="J25" s="63"/>
       <c r="K25" s="64"/>
       <c r="L25" s="62" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="M25" s="63"/>
       <c r="N25" s="64"/>
       <c r="O25" s="62" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="P25" s="63"/>
       <c r="Q25" s="65"/>
@@ -11264,40 +11319,40 @@
       <c r="D26" s="61"/>
       <c r="E26" s="61"/>
       <c r="F26" s="63" t="s">
+        <v>99</v>
+      </c>
+      <c r="G26" s="66" t="s">
+        <v>94</v>
+      </c>
+      <c r="H26" s="160" t="s">
         <v>100</v>
       </c>
-      <c r="G26" s="66" t="s">
-        <v>95</v>
-      </c>
-      <c r="H26" s="160" t="s">
-        <v>101</v>
-      </c>
       <c r="I26" s="63" t="s">
+        <v>99</v>
+      </c>
+      <c r="J26" s="66" t="s">
+        <v>94</v>
+      </c>
+      <c r="K26" s="67" t="s">
         <v>100</v>
       </c>
-      <c r="J26" s="66" t="s">
-        <v>95</v>
-      </c>
-      <c r="K26" s="67" t="s">
-        <v>101</v>
-      </c>
       <c r="L26" s="63" t="s">
+        <v>99</v>
+      </c>
+      <c r="M26" s="66" t="s">
+        <v>94</v>
+      </c>
+      <c r="N26" s="67" t="s">
         <v>100</v>
       </c>
-      <c r="M26" s="66" t="s">
-        <v>95</v>
-      </c>
-      <c r="N26" s="67" t="s">
-        <v>101</v>
-      </c>
       <c r="O26" s="63" t="s">
+        <v>99</v>
+      </c>
+      <c r="P26" s="66" t="s">
+        <v>94</v>
+      </c>
+      <c r="Q26" s="68" t="s">
         <v>100</v>
-      </c>
-      <c r="P26" s="66" t="s">
-        <v>95</v>
-      </c>
-      <c r="Q26" s="68" t="s">
-        <v>101</v>
       </c>
     </row>
     <row r="27" spans="3:17" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
@@ -11343,7 +11398,7 @@
     </row>
     <row r="28" spans="3:17" ht="18.75" x14ac:dyDescent="0.3">
       <c r="C28" s="73" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="D28" s="74"/>
       <c r="E28" s="61"/>
@@ -11368,13 +11423,13 @@
       <c r="G29" s="61"/>
       <c r="H29" s="74"/>
       <c r="I29" s="63" t="s">
+        <v>102</v>
+      </c>
+      <c r="J29" s="63" t="s">
         <v>103</v>
       </c>
-      <c r="J29" s="63" t="s">
+      <c r="K29" s="75" t="s">
         <v>104</v>
-      </c>
-      <c r="K29" s="75" t="s">
-        <v>105</v>
       </c>
       <c r="L29" s="61"/>
       <c r="M29" s="61"/>
@@ -11390,7 +11445,7 @@
       <c r="F30" s="61"/>
       <c r="G30" s="61"/>
       <c r="H30" s="159" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="I30" s="74" t="str">
         <f>'EvaluationSheet 48Gy4F 60Gy5F'!G9</f>
@@ -11414,7 +11469,7 @@
       <c r="F31" s="61"/>
       <c r="G31" s="61"/>
       <c r="H31" s="77" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="I31" s="74" t="str">
         <f>'EvaluationSheet 48Gy4F 60Gy5F'!G22</f>
@@ -11442,19 +11497,19 @@
       <c r="F32" s="61"/>
       <c r="G32" s="61"/>
       <c r="H32" s="77" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="I32" s="74" t="str">
         <f>'EvaluationSheet 48Gy4F 60Gy5F'!G25</f>
-        <v xml:space="preserve"> ??</v>
+        <v>??</v>
       </c>
       <c r="J32" s="76" t="e">
         <f>I32/I30</f>
         <v>#VALUE!</v>
       </c>
-      <c r="K32" s="74" t="e">
-        <f ca="1">IF(I32="??","??",IF(J32&lt;=I27,I26,IF(J32&lt;=J27,J26,K26)))</f>
-        <v>#VALUE!</v>
+      <c r="K32" s="74" t="str">
+        <f>IF(I32="??","??",IF(J32&lt;=I27,I26,IF(J32&lt;=J27,J26,K26)))</f>
+        <v>??</v>
       </c>
       <c r="L32" s="61"/>
       <c r="M32" s="61"/>
@@ -11470,7 +11525,7 @@
       <c r="F33" s="61"/>
       <c r="G33" s="61"/>
       <c r="H33" s="77" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="I33" s="74" t="str">
         <f>'EvaluationSheet 48Gy4F 60Gy5F'!G24</f>
@@ -11498,7 +11553,7 @@
       <c r="F34" s="61"/>
       <c r="G34" s="61"/>
       <c r="H34" s="77" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="I34" s="76" t="str">
         <f>'EvaluationSheet 48Gy4F 60Gy5F'!G31</f>
@@ -11535,7 +11590,7 @@
     </row>
     <row r="43" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C43" s="153" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
     </row>
   </sheetData>
@@ -11581,7 +11636,7 @@
       <c r="G1" s="25"/>
       <c r="H1" s="25"/>
       <c r="I1" s="26" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="J1" s="25"/>
       <c r="K1" s="25"/>
@@ -11596,7 +11651,7 @@
       <c r="C2" s="28"/>
       <c r="D2" s="29"/>
       <c r="E2" s="30" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="F2" s="29"/>
       <c r="G2" s="29"/>
@@ -11622,12 +11677,12 @@
       <c r="J3" s="25"/>
       <c r="K3" s="25"/>
       <c r="L3" s="24" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="M3" s="25"/>
       <c r="N3" s="27"/>
       <c r="O3" s="25" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="P3" s="25"/>
       <c r="Q3" s="27"/>
@@ -11637,22 +11692,22 @@
       <c r="D4" s="33"/>
       <c r="E4" s="29"/>
       <c r="F4" s="34" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="G4" s="29"/>
       <c r="H4" s="31"/>
       <c r="I4" s="29" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="J4" s="29"/>
       <c r="K4" s="29"/>
       <c r="L4" s="28" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="M4" s="29"/>
       <c r="N4" s="31"/>
       <c r="O4" s="29" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="P4" s="29"/>
       <c r="Q4" s="31"/>
@@ -11662,17 +11717,17 @@
       <c r="D5" s="29"/>
       <c r="E5" s="29"/>
       <c r="F5" s="34" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="G5" s="29"/>
       <c r="H5" s="31"/>
       <c r="I5" s="35" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="J5" s="29"/>
       <c r="K5" s="29"/>
       <c r="L5" s="28" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="M5" s="29"/>
       <c r="N5" s="31"/>
@@ -11683,11 +11738,11 @@
     <row r="6" spans="3:17" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
       <c r="C6" s="28"/>
       <c r="D6" s="36" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="E6" s="29"/>
       <c r="F6" s="34" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="G6" s="29"/>
       <c r="H6" s="31"/>
@@ -11704,26 +11759,26 @@
     <row r="7" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C7" s="28"/>
       <c r="D7" s="36" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="E7" s="29"/>
       <c r="F7" s="37" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="G7" s="25"/>
       <c r="H7" s="27"/>
       <c r="I7" s="25"/>
       <c r="J7" s="25" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="K7" s="25"/>
       <c r="L7" s="38" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="M7" s="25"/>
       <c r="N7" s="27"/>
       <c r="O7" s="39" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="P7" s="25"/>
       <c r="Q7" s="27"/>
@@ -11731,35 +11786,35 @@
     <row r="8" spans="3:17" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
       <c r="C8" s="40"/>
       <c r="D8" s="41" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="E8" s="41"/>
       <c r="F8" s="42" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="G8" s="41" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="H8" s="43"/>
       <c r="I8" s="41" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="J8" s="41" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="K8" s="41"/>
       <c r="L8" s="42" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="M8" s="41" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="N8" s="43"/>
       <c r="O8" s="41" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="P8" s="44" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="Q8" s="43"/>
     </row>
@@ -12167,7 +12222,7 @@
     </row>
     <row r="21" spans="3:17" ht="15" x14ac:dyDescent="0.25">
       <c r="C21" s="28" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="D21" s="45"/>
       <c r="E21" s="36"/>
@@ -12186,7 +12241,7 @@
     </row>
     <row r="22" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C22" s="28" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="D22" s="36"/>
       <c r="E22" s="36"/>
@@ -12224,7 +12279,7 @@
     </row>
     <row r="24" spans="3:17" ht="18.75" x14ac:dyDescent="0.3">
       <c r="C24" s="56" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="D24" s="57"/>
       <c r="E24" s="57"/>
@@ -12248,22 +12303,22 @@
       <c r="D25" s="61"/>
       <c r="E25" s="61"/>
       <c r="F25" s="62" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="G25" s="63"/>
       <c r="H25" s="64"/>
       <c r="I25" s="62" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="J25" s="63"/>
       <c r="K25" s="64"/>
       <c r="L25" s="62" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="M25" s="63"/>
       <c r="N25" s="64"/>
       <c r="O25" s="62" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="P25" s="63"/>
       <c r="Q25" s="65"/>
@@ -12273,40 +12328,40 @@
       <c r="D26" s="61"/>
       <c r="E26" s="61"/>
       <c r="F26" s="63" t="s">
+        <v>99</v>
+      </c>
+      <c r="G26" s="66" t="s">
+        <v>94</v>
+      </c>
+      <c r="H26" s="67" t="s">
         <v>100</v>
       </c>
-      <c r="G26" s="66" t="s">
-        <v>95</v>
-      </c>
-      <c r="H26" s="67" t="s">
-        <v>101</v>
-      </c>
       <c r="I26" s="63" t="s">
+        <v>99</v>
+      </c>
+      <c r="J26" s="66" t="s">
+        <v>94</v>
+      </c>
+      <c r="K26" s="67" t="s">
         <v>100</v>
       </c>
-      <c r="J26" s="66" t="s">
-        <v>95</v>
-      </c>
-      <c r="K26" s="67" t="s">
-        <v>101</v>
-      </c>
       <c r="L26" s="63" t="s">
+        <v>99</v>
+      </c>
+      <c r="M26" s="66" t="s">
+        <v>94</v>
+      </c>
+      <c r="N26" s="67" t="s">
         <v>100</v>
       </c>
-      <c r="M26" s="66" t="s">
-        <v>95</v>
-      </c>
-      <c r="N26" s="67" t="s">
-        <v>101</v>
-      </c>
       <c r="O26" s="63" t="s">
+        <v>99</v>
+      </c>
+      <c r="P26" s="66" t="s">
+        <v>94</v>
+      </c>
+      <c r="Q26" s="68" t="s">
         <v>100</v>
-      </c>
-      <c r="P26" s="66" t="s">
-        <v>95</v>
-      </c>
-      <c r="Q26" s="68" t="s">
-        <v>101</v>
       </c>
     </row>
     <row r="27" spans="3:17" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
@@ -12352,7 +12407,7 @@
     </row>
     <row r="28" spans="3:17" ht="18.75" x14ac:dyDescent="0.3">
       <c r="C28" s="73" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="D28" s="74"/>
       <c r="E28" s="61"/>
@@ -12377,13 +12432,13 @@
       <c r="G29" s="61"/>
       <c r="H29" s="74"/>
       <c r="I29" s="63" t="s">
+        <v>102</v>
+      </c>
+      <c r="J29" s="63" t="s">
         <v>103</v>
       </c>
-      <c r="J29" s="63" t="s">
+      <c r="K29" s="75" t="s">
         <v>104</v>
-      </c>
-      <c r="K29" s="75" t="s">
-        <v>105</v>
       </c>
       <c r="L29" s="61"/>
       <c r="M29" s="61"/>
@@ -12399,7 +12454,7 @@
       <c r="F30" s="61"/>
       <c r="G30" s="61"/>
       <c r="H30" s="159" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="I30" s="74" t="str">
         <f>'EvaluationSheet 60Gy 8F'!G9</f>
@@ -12423,7 +12478,7 @@
       <c r="F31" s="61"/>
       <c r="G31" s="61"/>
       <c r="H31" s="77" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="I31" s="74" t="str">
         <f>'EvaluationSheet 60Gy 8F'!G22</f>
@@ -12451,7 +12506,7 @@
       <c r="F32" s="61"/>
       <c r="G32" s="61"/>
       <c r="H32" s="77" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="I32" s="74" t="str">
         <f>'EvaluationSheet 60Gy 8F'!G25</f>
@@ -12479,7 +12534,7 @@
       <c r="F33" s="61"/>
       <c r="G33" s="61"/>
       <c r="H33" s="77" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="I33" s="74" t="str">
         <f>'EvaluationSheet 60Gy 8F'!G24</f>
@@ -12507,7 +12562,7 @@
       <c r="F34" s="61"/>
       <c r="G34" s="61"/>
       <c r="H34" s="77" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="I34" s="76" t="str">
         <f>'EvaluationSheet 60Gy 8F'!G31</f>
@@ -12544,7 +12599,7 @@
     </row>
     <row r="46" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C46" s="153" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
     </row>
   </sheetData>
@@ -12589,7 +12644,7 @@
       <c r="G1" s="25"/>
       <c r="H1" s="25"/>
       <c r="I1" s="26" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="J1" s="25"/>
       <c r="K1" s="25"/>
@@ -12604,7 +12659,7 @@
       <c r="C2" s="28"/>
       <c r="D2" s="29"/>
       <c r="E2" s="30" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="F2" s="29"/>
       <c r="G2" s="29"/>
@@ -12630,12 +12685,12 @@
       <c r="J3" s="25"/>
       <c r="K3" s="25"/>
       <c r="L3" s="24" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="M3" s="25"/>
       <c r="N3" s="27"/>
       <c r="O3" s="25" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="P3" s="25"/>
       <c r="Q3" s="27"/>
@@ -12645,22 +12700,22 @@
       <c r="D4" s="33"/>
       <c r="E4" s="29"/>
       <c r="F4" s="34" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="G4" s="29"/>
       <c r="H4" s="31"/>
       <c r="I4" s="29" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="J4" s="29"/>
       <c r="K4" s="29"/>
       <c r="L4" s="28" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="M4" s="29"/>
       <c r="N4" s="31"/>
       <c r="O4" s="29" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="P4" s="29"/>
       <c r="Q4" s="31"/>
@@ -12670,17 +12725,17 @@
       <c r="D5" s="29"/>
       <c r="E5" s="29"/>
       <c r="F5" s="34" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="G5" s="29"/>
       <c r="H5" s="31"/>
       <c r="I5" s="35" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="J5" s="29"/>
       <c r="K5" s="29"/>
       <c r="L5" s="28" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="M5" s="29"/>
       <c r="N5" s="31"/>
@@ -12691,11 +12746,11 @@
     <row r="6" spans="3:17" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
       <c r="C6" s="28"/>
       <c r="D6" s="36" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="E6" s="29"/>
       <c r="F6" s="34" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="G6" s="29"/>
       <c r="H6" s="31"/>
@@ -12712,26 +12767,26 @@
     <row r="7" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C7" s="28"/>
       <c r="D7" s="36" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="E7" s="29"/>
       <c r="F7" s="37" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="G7" s="25"/>
       <c r="H7" s="27"/>
       <c r="I7" s="25"/>
       <c r="J7" s="25" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="K7" s="25"/>
       <c r="L7" s="38" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="M7" s="25"/>
       <c r="N7" s="27"/>
       <c r="O7" s="39" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="P7" s="25"/>
       <c r="Q7" s="27"/>
@@ -12739,35 +12794,35 @@
     <row r="8" spans="3:17" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
       <c r="C8" s="40"/>
       <c r="D8" s="41" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="E8" s="41"/>
       <c r="F8" s="42" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="G8" s="41" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="H8" s="43"/>
       <c r="I8" s="41" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="J8" s="41" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="K8" s="41"/>
       <c r="L8" s="42" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="M8" s="41" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="N8" s="43"/>
       <c r="O8" s="41" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="P8" s="44" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="Q8" s="43"/>
     </row>
@@ -13175,7 +13230,7 @@
     </row>
     <row r="21" spans="3:17" ht="15" x14ac:dyDescent="0.25">
       <c r="C21" s="28" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="D21" s="45"/>
       <c r="E21" s="36"/>
@@ -13194,7 +13249,7 @@
     </row>
     <row r="22" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C22" s="28" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="D22" s="36"/>
       <c r="E22" s="36"/>
@@ -13232,7 +13287,7 @@
     </row>
     <row r="24" spans="3:17" ht="18.75" x14ac:dyDescent="0.3">
       <c r="C24" s="56" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="D24" s="57"/>
       <c r="E24" s="57"/>
@@ -13256,22 +13311,22 @@
       <c r="D25" s="61"/>
       <c r="E25" s="61"/>
       <c r="F25" s="62" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="G25" s="63"/>
       <c r="H25" s="64"/>
       <c r="I25" s="62" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="J25" s="63"/>
       <c r="K25" s="64"/>
       <c r="L25" s="62" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="M25" s="63"/>
       <c r="N25" s="64"/>
       <c r="O25" s="62" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="P25" s="63"/>
       <c r="Q25" s="65"/>
@@ -13281,40 +13336,40 @@
       <c r="D26" s="61"/>
       <c r="E26" s="61"/>
       <c r="F26" s="63" t="s">
+        <v>99</v>
+      </c>
+      <c r="G26" s="66" t="s">
+        <v>94</v>
+      </c>
+      <c r="H26" s="67" t="s">
         <v>100</v>
       </c>
-      <c r="G26" s="66" t="s">
-        <v>95</v>
-      </c>
-      <c r="H26" s="67" t="s">
-        <v>101</v>
-      </c>
       <c r="I26" s="63" t="s">
+        <v>99</v>
+      </c>
+      <c r="J26" s="66" t="s">
+        <v>94</v>
+      </c>
+      <c r="K26" s="67" t="s">
         <v>100</v>
       </c>
-      <c r="J26" s="66" t="s">
-        <v>95</v>
-      </c>
-      <c r="K26" s="67" t="s">
-        <v>101</v>
-      </c>
       <c r="L26" s="63" t="s">
+        <v>99</v>
+      </c>
+      <c r="M26" s="66" t="s">
+        <v>94</v>
+      </c>
+      <c r="N26" s="67" t="s">
         <v>100</v>
       </c>
-      <c r="M26" s="66" t="s">
-        <v>95</v>
-      </c>
-      <c r="N26" s="67" t="s">
-        <v>101</v>
-      </c>
       <c r="O26" s="63" t="s">
+        <v>99</v>
+      </c>
+      <c r="P26" s="66" t="s">
+        <v>94</v>
+      </c>
+      <c r="Q26" s="68" t="s">
         <v>100</v>
-      </c>
-      <c r="P26" s="66" t="s">
-        <v>95</v>
-      </c>
-      <c r="Q26" s="68" t="s">
-        <v>101</v>
       </c>
     </row>
     <row r="27" spans="3:17" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
@@ -13360,7 +13415,7 @@
     </row>
     <row r="28" spans="3:17" ht="18.75" x14ac:dyDescent="0.3">
       <c r="C28" s="73" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="D28" s="74"/>
       <c r="E28" s="61"/>
@@ -13385,13 +13440,13 @@
       <c r="G29" s="61"/>
       <c r="H29" s="74"/>
       <c r="I29" s="63" t="s">
+        <v>102</v>
+      </c>
+      <c r="J29" s="63" t="s">
         <v>103</v>
       </c>
-      <c r="J29" s="63" t="s">
+      <c r="K29" s="75" t="s">
         <v>104</v>
-      </c>
-      <c r="K29" s="75" t="s">
-        <v>105</v>
       </c>
       <c r="L29" s="61"/>
       <c r="M29" s="61"/>
@@ -13407,7 +13462,7 @@
       <c r="F30" s="61"/>
       <c r="G30" s="61"/>
       <c r="H30" s="159" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="I30" s="74" t="str">
         <f>'EvaluationSheet 54Gy 3F'!G9</f>
@@ -13431,7 +13486,7 @@
       <c r="F31" s="61"/>
       <c r="G31" s="61"/>
       <c r="H31" s="77" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="I31" s="74" t="str">
         <f>'EvaluationSheet 54Gy 3F'!G22</f>
@@ -13459,7 +13514,7 @@
       <c r="F32" s="61"/>
       <c r="G32" s="61"/>
       <c r="H32" s="77" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="I32" s="74" t="str">
         <f>'EvaluationSheet 54Gy 3F'!G25</f>
@@ -13487,7 +13542,7 @@
       <c r="F33" s="61"/>
       <c r="G33" s="61"/>
       <c r="H33" s="77" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="I33" s="74" t="str">
         <f>'EvaluationSheet 54Gy 3F'!G24</f>
@@ -13515,7 +13570,7 @@
       <c r="F34" s="61"/>
       <c r="G34" s="61"/>
       <c r="H34" s="77" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="I34" s="76" t="e">
         <f>'EvaluationSheet 54Gy 3F'!G31*100</f>
@@ -13552,7 +13607,7 @@
     </row>
     <row r="43" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C43" s="153" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
     </row>
   </sheetData>
@@ -13583,25 +13638,25 @@
   <sheetData>
     <row r="2" spans="8:16" ht="26.25" x14ac:dyDescent="0.4">
       <c r="H2" s="78" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="P2" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
     </row>
     <row r="3" spans="8:16" x14ac:dyDescent="0.2">
       <c r="O3" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
     </row>
     <row r="5" spans="8:16" ht="15.75" x14ac:dyDescent="0.3">
       <c r="O5" s="79" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
     </row>
     <row r="6" spans="8:16" ht="15.75" x14ac:dyDescent="0.3">
       <c r="O6" s="79" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
     </row>
     <row r="8" spans="8:16" x14ac:dyDescent="0.2">
